--- a/Data_extraction.xlsx
+++ b/Data_extraction.xlsx
@@ -4,30 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9060" tabRatio="632" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9060" tabRatio="632" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction" sheetId="1" r:id="rId1"/>
     <sheet name="Source to Target" sheetId="11" state="hidden" r:id="rId2"/>
     <sheet name="Domain" sheetId="7" r:id="rId3"/>
-    <sheet name="Purposes of using metadata" sheetId="4" r:id="rId4"/>
-    <sheet name="Metadata-driven methods" sheetId="13" r:id="rId5"/>
+    <sheet name="Metadata-driven methods" sheetId="13" r:id="rId4"/>
+    <sheet name="Purposes of using metadata" sheetId="4" r:id="rId5"/>
     <sheet name="Purposes &amp; MDD methods" sheetId="12" r:id="rId6"/>
     <sheet name="Metadata-driven Tools" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data extraction'!$M$1:$AH$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Metadata-driven methods'!$A$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metadata-driven methods'!$A$1:$E$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Metadata-driven Tools'!$A$1:$F$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Purposes &amp; MDD methods'!$B$1:$N$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Purposes of using metadata'!$B$1:$I$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Purposes of using metadata'!$B$1:$I$41</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Metadata-driven methods'!$C$46:$D$66</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Metadata-driven methods'!$E$45</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Metadata-driven Tools'!$F$44</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Metadata-driven Tools'!$F$45:$F$96</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Metadata-driven Tools'!$C$45:$E$99</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Metadata-driven Tools'!$F$44</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Metadata-driven Tools'!$F$45:$F$96</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Metadata-driven methods'!$E$46:$E$66</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Purposes &amp; MDD methods'!$B$68:$C$88</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Purposes &amp; MDD methods'!$D$67</definedName>
@@ -35,7 +30,6 @@
     <definedName name="_xlchart.v1.6" hidden="1">'Metadata-driven Tools'!$C$45:$E$99</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Metadata-driven Tools'!$F$44</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'Metadata-driven Tools'!$F$45:$F$96</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Metadata-driven Tools'!$C$45:$E$99</definedName>
     <definedName name="Included" localSheetId="0">'Data extraction'!$B$1:$BI$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -276,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="616">
   <si>
     <t>Data</t>
   </si>
@@ -3323,9 +3317,7 @@
 </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3711,6 +3703,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-E8FF-47F5-B9C0-4AAD1BE61BC4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3792,7 +3789,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -3801,7 +3798,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
@@ -4097,10 +4094,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4135,7 +4132,7 @@
         <cx:series layoutId="sunburst" uniqueId="{BFC013B6-1B88-4838-8E7F-AB35EDD31A99}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Counts</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4899,6 +4896,442 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="850" kern="1200"/>
+    <cs:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5413,442 +5846,6 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="850" kern="1200"/>
-    <cs:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-            <a:lumOff val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-    <cs:bodyPr/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6775,41 +6772,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>10706100</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -6874,6 +6836,41 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542923</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7295,8 +7292,8 @@
   <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11668,7 +11665,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12261,2173 +12258,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="167.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="19" t="s">
-        <v>539</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
-        <f>COUNTIF($B$2:B2,B2)&amp;":"&amp;B2</f>
-        <v>1:PTU4KWIF</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="28" t="str">
-        <f>VLOOKUP(A2,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>For conctrolling the ETL process to i2b2</v>
-      </c>
-      <c r="D2" s="19" t="str">
-        <f t="shared" ref="D2:D39" si="0">IF(OR(ISNUMBER(SEARCH("generat",C2)),ISNUMBER(SEARCH("creat",C2)),ISNUMBER(SEARCH("propos",C2)),ISNUMBER(SEARCH("design",C2)),ISNUMBER(SEARCH("develop",C2)),ISNUMBER(SEARCH("data integration",C2))),"x","")</f>
-        <v/>
-      </c>
-      <c r="E2" s="23" t="str">
-        <f t="shared" ref="E2:E31" si="1">IF(OR(ISNUMBER(SEARCH("reus",C2)),ISNUMBER(SEARCH("repeat",C2)),ISNUMBER(SEARCH("exist",C2))),"x","")</f>
-        <v/>
-      </c>
-      <c r="F2" s="23" t="str">
-        <f t="shared" ref="F2:F40" si="2">IF(OR(ISNUMBER(SEARCH("generi",C2)),ISNUMBER(SEARCH("general",C2)),ISNUMBER(SEARCH("one",C2)),,ISNUMBER(SEARCH("unif",C2))),"x","")</f>
-        <v/>
-      </c>
-      <c r="G2" s="23" t="str">
-        <f t="shared" ref="G2:G40" si="3">IF(OR(ISNUMBER(SEARCH("automat",C2)),ISNUMBER(SEARCH("auto",C2)),),"x","")</f>
-        <v/>
-      </c>
-      <c r="H2" s="23" t="str">
-        <f t="shared" ref="H2:H40" si="4">IF(OR(ISNUMBER(SEARCH("effec",C2)),ISNUMBER(SEARCH("efficien",C2)),ISNUMBER(SEARCH("fast",C2)),ISNUMBER(SEARCH("performance",C2))),"x","")</f>
-        <v/>
-      </c>
-      <c r="I2" s="19" t="str">
-        <f t="shared" ref="I2:I26" si="5">IF(OR(ISNUMBER(SEARCH("transform",C2)),ISNUMBER(SEARCH("integrat",C2))),"x","")</f>
-        <v/>
-      </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>COUNTIF($B$2:B3,B3)&amp;":"&amp;B3</f>
-        <v>1:R7HWEFXF</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>486</v>
-      </c>
-      <c r="C3" s="28" t="str">
-        <f>VLOOKUP(A3,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>for automating the execution of ETL-tasks based on Airflow DAGs</v>
-      </c>
-      <c r="D3" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E3" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F3" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G3" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H3" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I3" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f>COUNTIF($B$2:B4,B4)&amp;":"&amp;B4</f>
-        <v>1:S6LJVG2G</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="28" t="str">
-        <f>VLOOKUP(A4,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>to allow high possibility of automation of the ETL process design.</v>
-      </c>
-      <c r="D4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E4" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F4" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G4" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H4" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I4" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
-        <f>COUNTIF($B$2:B5,B5)&amp;":"&amp;B5</f>
-        <v>1:FXJ5NTTB</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="C5" s="28" t="str">
-        <f>VLOOKUP(A5,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>to produce rich and meaningful knowledge around data integration and generates semantic data as part of the transformation phase of ETL</v>
-      </c>
-      <c r="D5" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E5" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G5" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H5" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I5" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>x</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f>COUNTIF($B$2:B6,B6)&amp;":"&amp;B6</f>
-        <v>1:4H7A5BBP</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="28" t="str">
-        <f>VLOOKUP(A6,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>automation for generation ETL workflows</v>
-      </c>
-      <c r="D6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E6" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F6" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G6" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H6" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I6" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f>COUNTIF($B$2:B7,B7)&amp;":"&amp;B7</f>
-        <v>1:W45GKKCL</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>488</v>
-      </c>
-      <c r="C7" s="28" t="str">
-        <f>VLOOKUP(A7,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To automatically enricht ontology by text document, so that the semantic ETL can provide a common data repository</v>
-      </c>
-      <c r="D7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F7" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G7" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H7" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I7" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f>COUNTIF($B$2:B8,B8)&amp;":"&amp;B8</f>
-        <v>1:AFEC8VNN</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="28" t="str">
-        <f>VLOOKUP(A8,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To propose an automatic algorithm to generate ETL data flows.</v>
-      </c>
-      <c r="D8" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F8" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H8" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I8" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f>COUNTIF($B$2:B9,B9)&amp;":"&amp;B9</f>
-        <v>1:WGMWTPM7</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="28" t="str">
-        <f>VLOOKUP(A9,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>to make the core ETL pipeline reusable and to be able to use in any secure environments</v>
-      </c>
-      <c r="D9" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>x</v>
-      </c>
-      <c r="F9" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G9" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H9" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I9" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f>COUNTIF($B$2:B10,B10)&amp;":"&amp;B10</f>
-        <v>1:GUHMBZP3</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="28" t="str">
-        <f>VLOOKUP(A10,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To auto-generate ETL code.</v>
-      </c>
-      <c r="D10" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E10" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G10" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H10" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I10" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f>COUNTIF($B$2:B11,B11)&amp;":"&amp;B11</f>
-        <v>1:LC6FMJH6</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="28" t="str">
-        <f>VLOOKUP(A11,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>automates part of the transformation process</v>
-      </c>
-      <c r="D11" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F11" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G11" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H11" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I11" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>x</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>COUNTIF($B$2:B12,B12)&amp;":"&amp;B12</f>
-        <v>1:G57DNTZK</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="28" t="str">
-        <f>VLOOKUP(A12,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>proposed a generic framework to construct a semantic data warehouse from semantic database. This framework contributes on defining ETL process at ontological level.</v>
-      </c>
-      <c r="D12" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E12" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="G12" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H12" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I12" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>COUNTIF($B$2:B13,B13)&amp;":"&amp;B13</f>
-        <v>1:H5CMN9ZS</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="28" t="str">
-        <f>VLOOKUP(A13,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>Use MMX for storing ETL metadata. This metadata is then used for automatically generating SQL scripts for transformation.</v>
-      </c>
-      <c r="D13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E13" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G13" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H13" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I13" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>x</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>COUNTIF($B$2:B14,B14)&amp;":"&amp;B14</f>
-        <v>1:7MSMYDLK</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="28" t="str">
-        <f>VLOOKUP(A14,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>(is a Review paper)
-For: modelling ETL processes; modelling data; modelling DWH; design DWH;expressing patterns of ETL process</v>
-      </c>
-      <c r="D14" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E14" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H14" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I14" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f>COUNTIF($B$2:B15,B15)&amp;":"&amp;B15</f>
-        <v>2:7MSMYDLK</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="28" t="str">
-        <f>VLOOKUP(A15,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>modelling ETL processes;automatically generating ETL process;expressing patterns of ETL process</v>
-      </c>
-      <c r="D15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E15" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G15" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H15" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I15" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
-        <f>COUNTIF($B$2:B16,B16)&amp;":"&amp;B16</f>
-        <v>3:7MSMYDLK</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="28" t="str">
-        <f>VLOOKUP(A16,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>development of DWH;automatically generating ETL process;modelling DWH</v>
-      </c>
-      <c r="D16" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F16" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G16" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H16" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I16" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
-        <f>COUNTIF($B$2:B17,B17)&amp;":"&amp;B17</f>
-        <v>4:7MSMYDLK</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="28" t="str">
-        <f>VLOOKUP(A17,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>modelling ETL processes;design ETL process;prediction of ETL performance;development of DWH;development of ETL process;improve performance</v>
-      </c>
-      <c r="D17" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F17" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G17" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H17" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="I17" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
-        <f>COUNTIF($B$2:B18,B18)&amp;":"&amp;B18</f>
-        <v>5:7MSMYDLK</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="28" t="str">
-        <f>VLOOKUP(A18,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>modelling ETL processes;describe ETL</v>
-      </c>
-      <c r="D18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G18" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H18" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I18" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
-        <f>COUNTIF($B$2:B19,B19)&amp;":"&amp;B19</f>
-        <v>1:2DDKISFN</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="28" t="str">
-        <f>VLOOKUP(A19,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>to develop a method that is based on declarative, universally machine-processible but also human-readable and easily maintainable ETL definitions that can be translated into automated database transactions.</v>
-      </c>
-      <c r="D19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E19" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F19" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G19" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H19" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I19" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
-        <f>COUNTIF($B$2:B20,B20)&amp;":"&amp;B20</f>
-        <v>1:HTZ6A98U</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="28" t="str">
-        <f>VLOOKUP(A20,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>allows horizontal scaling of the system by adding new consumer nodes on demand for increaded load. In this way, the processed number of data per second (performance) increased.</v>
-      </c>
-      <c r="D20" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G20" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H20" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="I20" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
-        <f>COUNTIF($B$2:B21,B21)&amp;":"&amp;B21</f>
-        <v>1:MVT6DRNA</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="28" t="str">
-        <f>VLOOKUP(A21,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>by using rules based on the structure and rules on how the data vault entities will be populated, it is possible to automatically generate ETL code.</v>
-      </c>
-      <c r="D21" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E21" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G21" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H21" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I21" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
-        <f>COUNTIF($B$2:B22,B22)&amp;":"&amp;B22</f>
-        <v>1:ZQ5N6K9Q</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="28" t="str">
-        <f>VLOOKUP(A22,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>overall harmonization framework which has been developed for harmonization of spatial planning data in scope of the INSPIRE directive</v>
-      </c>
-      <c r="D22" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E22" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F22" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G22" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H22" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I22" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
-        <f>COUNTIF($B$2:B23,B23)&amp;":"&amp;B23</f>
-        <v>1:A7PVZFY8</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="28" t="str">
-        <f>VLOOKUP(A23,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>4D foundational ontology is a meas of dealing with the diversity of representation and sematnics within acquired data. Using a 4D foundational ontology enables the harmonisatioin of data, then generates a graph database</v>
-      </c>
-      <c r="D23" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E23" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G23" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H23" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I23" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
-        <f>COUNTIF($B$2:B24,B24)&amp;":"&amp;B24</f>
-        <v>1:IDIA875P</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="C24" s="28" t="str">
-        <f>VLOOKUP(A24,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>automate the process of constructing a StarGraph for building a data mart</v>
-      </c>
-      <c r="D24" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G24" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H24" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I24" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
-        <f>COUNTIF($B$2:B25,B25)&amp;":"&amp;B25</f>
-        <v>1:ESWG8YG7</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="28" t="str">
-        <f>VLOOKUP(A25,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To reduce the complexity of the extraction process by describing all source data using ontology.</v>
-      </c>
-      <c r="D25" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G25" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H25" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I25" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
-        <f>COUNTIF($B$2:B26,B26)&amp;":"&amp;B26</f>
-        <v>1:ZN77M9AM</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="28" t="str">
-        <f>VLOOKUP(A26,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>Aims to offer a consistent and repeatable process to convert a volume of data from delimited files via templates to RDF.</v>
-      </c>
-      <c r="D26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>x</v>
-      </c>
-      <c r="F26" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G26" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H26" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I26" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="str">
-        <f>COUNTIF($B$2:B27,B27)&amp;":"&amp;B27</f>
-        <v>1:MX6N36VX</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="28" t="str">
-        <f>VLOOKUP(A27,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To be able to automatically intergrate new data source; automatically generate template for transformation by using metadata of source data</v>
-      </c>
-      <c r="D27" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E27" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F27" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G27" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H27" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I27" s="19" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("transform",C27)),ISNUMBER(SEARCH("integrat",C27))),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
-        <f>COUNTIF($B$2:B28,B28)&amp;":"&amp;B28</f>
-        <v>1:8IRI7CBT</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="28" t="str">
-        <f>VLOOKUP(A28,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v xml:space="preserve">To overcome/address the limitations of traditional ETL-processes (well-defined boundries for all steps within ETL process) for secondary use of EHRs; the data could be transformed automatically to OMOP CDM </v>
-      </c>
-      <c r="D28" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E28" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F28" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G28" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H28" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I28" s="19" t="str">
-        <f t="shared" ref="I28:I29" si="6">IF(OR(ISNUMBER(SEARCH("transform",C28)),ISNUMBER(SEARCH("integrat",C28))),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
-        <f>COUNTIF($B$2:B29,B29)&amp;":"&amp;B29</f>
-        <v>2:8IRI7CBT</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="28" t="str">
-        <f>VLOOKUP(A29,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To overcome/address the limitations of traditional ETL-processes (well-defined boundries for all steps within ETL process) for secondary use of EHRs</v>
-      </c>
-      <c r="D29" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G29" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H29" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I29" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="str">
-        <f>COUNTIF($B$2:B30,B30)&amp;":"&amp;B30</f>
-        <v>1:97Z4C3QP</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>490</v>
-      </c>
-      <c r="C30" s="28" t="str">
-        <f>VLOOKUP(A30,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To be able to use the existing ETL process to prepare data in i2b2 for analytical purpose in PCORnet networks</v>
-      </c>
-      <c r="D30" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E30" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>x</v>
-      </c>
-      <c r="F30" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G30" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H30" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I30" s="19" t="str">
-        <f t="shared" ref="I30:I40" si="7">IF(OR(ISNUMBER(SEARCH("transform",C30)),ISNUMBER(SEARCH("integrat",C30))),"x","")</f>
-        <v/>
-      </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="str">
-        <f>COUNTIF($B$2:B31,B31)&amp;":"&amp;B31</f>
-        <v>1:BDD2GLAN</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>491</v>
-      </c>
-      <c r="C31" s="28" t="str">
-        <f>VLOOKUP(A31,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To reduce the effort of manual mapping; generating transformation scripts</v>
-      </c>
-      <c r="D31" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E31" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G31" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H31" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I31" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>x</v>
-      </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="str">
-        <f>COUNTIF($B$2:B32,B32)&amp;":"&amp;B32</f>
-        <v>1:DKYFUZT8</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="28" t="str">
-        <f>VLOOKUP(A32,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>proposed a tool, which can extract and load data to the i2b2 instancefor automatically.</v>
-      </c>
-      <c r="D32" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E32" s="23" t="str">
-        <f t="shared" ref="E32:E40" si="8">IF(OR(ISNUMBER(SEARCH("reus",C32)),ISNUMBER(SEARCH("repeat",C32)),ISNUMBER(SEARCH("exist",C32))),"x","")</f>
-        <v/>
-      </c>
-      <c r="F32" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G32" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H32" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I32" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="str">
-        <f>COUNTIF($B$2:B33,B33)&amp;":"&amp;B33</f>
-        <v>1:KHQMDHCL</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="28" t="str">
-        <f>VLOOKUP(A33,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>Proposed a strategy based on heterogeneous data models, metadata-driven bi-directional data mapping and ETL technology into heterougeneous data model to realize the data exchange.</v>
-      </c>
-      <c r="D33" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E33" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F33" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G33" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H33" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I33" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="str">
-        <f>COUNTIF($B$2:B34,B34)&amp;":"&amp;B34</f>
-        <v>1:K3TF9X78</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="28" t="str">
-        <f>VLOOKUP(A34,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To integrate data from heterogeneous sources automatically</v>
-      </c>
-      <c r="D34" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F34" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G34" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H34" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I34" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>x</v>
-      </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="str">
-        <f>COUNTIF($B$2:B35,B35)&amp;":"&amp;B35</f>
-        <v>1:8VTUX2A4</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" s="28" t="str">
-        <f>VLOOKUP(A35,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To populate data  (data model and semantic linked data) for ultimate storage in the data mart or warehouse.</v>
-      </c>
-      <c r="D35" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F35" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G35" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H35" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I35" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="str">
-        <f>COUNTIF($B$2:B36,B36)&amp;":"&amp;B36</f>
-        <v>1:RWIXPNY8</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="C36" s="28" t="str">
-        <f>VLOOKUP(A36,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To automatically generate SQL scripts for data transformation</v>
-      </c>
-      <c r="D36" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E36" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F36" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G36" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>x</v>
-      </c>
-      <c r="H36" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I36" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>x</v>
-      </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="str">
-        <f>COUNTIF($B$2:B37,B37)&amp;":"&amp;B37</f>
-        <v>2:RWIXPNY8</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="C37" s="28" t="str">
-        <f>VLOOKUP(A37,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To automatically generate SQL scripts for data transformation</v>
-      </c>
-      <c r="D37" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E37" s="23" t="str">
-        <f t="shared" ref="E37" si="9">IF(OR(ISNUMBER(SEARCH("reus",C37)),ISNUMBER(SEARCH("repeat",C37)),ISNUMBER(SEARCH("exist",C37))),"x","")</f>
-        <v/>
-      </c>
-      <c r="F37" s="23" t="str">
-        <f t="shared" ref="F37" si="10">IF(OR(ISNUMBER(SEARCH("generi",C37)),ISNUMBER(SEARCH("general",C37)),ISNUMBER(SEARCH("one",C37)),,ISNUMBER(SEARCH("unif",C37))),"x","")</f>
-        <v/>
-      </c>
-      <c r="G37" s="23" t="str">
-        <f t="shared" ref="G37" si="11">IF(OR(ISNUMBER(SEARCH("automat",C37)),ISNUMBER(SEARCH("auto",C37)),),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="H37" s="23" t="str">
-        <f t="shared" ref="H37" si="12">IF(OR(ISNUMBER(SEARCH("effec",C37)),ISNUMBER(SEARCH("efficien",C37)),ISNUMBER(SEARCH("fast",C37)),ISNUMBER(SEARCH("performance",C37))),"x","")</f>
-        <v/>
-      </c>
-      <c r="I37" s="19" t="str">
-        <f t="shared" ref="I37" si="13">IF(OR(ISNUMBER(SEARCH("transform",C37)),ISNUMBER(SEARCH("integrat",C37))),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="str">
-        <f>COUNTIF($B$2:B38,B38)&amp;":"&amp;B38</f>
-        <v>1:RQSVG23A</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>493</v>
-      </c>
-      <c r="C38" s="28" t="str">
-        <f>VLOOKUP(A38,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To avoid lots of repeatable, fallible and senseless operations and works (reusable ETL) and improve the performance of the ETL</v>
-      </c>
-      <c r="D38" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E38" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v>x</v>
-      </c>
-      <c r="F38" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G38" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H38" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
-      <c r="I38" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="str">
-        <f>COUNTIF($B$2:B39,B39)&amp;":"&amp;B39</f>
-        <v>1:3B3C7SVJ</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" s="28" t="str">
-        <f>VLOOKUP(A39,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>design an ETL process, which can genericly populate the targe data warehouse schema represented by an Integrating Ontology</v>
-      </c>
-      <c r="D39" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="E39" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F39" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="G39" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H39" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I39" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>x</v>
-      </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="str">
-        <f>COUNTIF($B$2:B40,B40)&amp;":"&amp;B40</f>
-        <v>1:TG9TQG9G</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="28" t="str">
-        <f>VLOOKUP(A40,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>To enable a generic (biomedical) data integration</v>
-      </c>
-      <c r="D40" s="19" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("generat",C40)),ISNUMBER(SEARCH("creat",C40)),ISNUMBER(SEARCH("propos",C40)),ISNUMBER(SEARCH("design",C40)),ISNUMBER(SEARCH("develop",C40)),ISNUMBER(SEARCH("data integration",C40))),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="E40" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F40" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="G40" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H40" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I40" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>x</v>
-      </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="str">
-        <f>COUNTIF($B$2:B41,B41)&amp;":"&amp;B41</f>
-        <v>2:TG9TQG9G</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="28" t="str">
-        <f>VLOOKUP(A41,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
-        <v>Permit the merge of different individuals from the same class</v>
-      </c>
-      <c r="D41" s="19" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("generat",C41)),ISNUMBER(SEARCH("creat",C41)),ISNUMBER(SEARCH("propos",C41)),ISNUMBER(SEARCH("design",C41)),ISNUMBER(SEARCH("develop",C41)),ISNUMBER(SEARCH("data integration",C41))),"x","")</f>
-        <v/>
-      </c>
-      <c r="E41" s="23" t="str">
-        <f t="shared" ref="E41" si="14">IF(OR(ISNUMBER(SEARCH("reus",C41)),ISNUMBER(SEARCH("repeat",C41)),ISNUMBER(SEARCH("exist",C41))),"x","")</f>
-        <v/>
-      </c>
-      <c r="F41" s="23" t="str">
-        <f t="shared" ref="F41" si="15">IF(OR(ISNUMBER(SEARCH("generi",C41)),ISNUMBER(SEARCH("general",C41)),ISNUMBER(SEARCH("one",C41)),,ISNUMBER(SEARCH("unif",C41))),"x","")</f>
-        <v/>
-      </c>
-      <c r="G41" s="23" t="str">
-        <f t="shared" ref="G41" si="16">IF(OR(ISNUMBER(SEARCH("automat",C41)),ISNUMBER(SEARCH("auto",C41)),),"x","")</f>
-        <v/>
-      </c>
-      <c r="H41" s="23" t="str">
-        <f t="shared" ref="H41" si="17">IF(OR(ISNUMBER(SEARCH("effec",C41)),ISNUMBER(SEARCH("efficien",C41)),ISNUMBER(SEARCH("fast",C41)),ISNUMBER(SEARCH("performance",C41))),"x","")</f>
-        <v/>
-      </c>
-      <c r="I41" s="19" t="str">
-        <f t="shared" ref="I41" si="18">IF(OR(ISNUMBER(SEARCH("transform",C41)),ISNUMBER(SEARCH("integrat",C41))),"x","")</f>
-        <v/>
-      </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C46" s="30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C47" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="D47" s="30">
-        <f>COUNTIF(E2:E41,"x")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C48" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="D48" s="30">
-        <f>SUMPRODUCT((G2:G41="x")*(I2:I41="x"))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="D49" s="30">
-        <f>COUNTIF(H2:H41,"x")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="D50" s="30">
-        <f>SUMPRODUCT((F2:F41="x")*(D2:D41="x"))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="D51" s="30">
-        <f>SUMPRODUCT((G2:G41="x")*(D2:D41="x")*(I2:I41=""))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="30" t="s">
-        <v>615</v>
-      </c>
-      <c r="D52" s="30">
-        <f>SUMPRODUCT((D2:D41="x")*(E2:E41="")*(F2:F41="")*(G2:G41="")*(H2:H41=""))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D53" s="30">
-        <f>SUMPRODUCT((D2:D41="")*(E2:E41="")*(F2:F41="")*(G2:G41="")*(H2:H41="")*(I2:I41=""))+SUMPRODUCT((D2:D41="")*(E2:E41="")*(F2:F41="x")*(G2:G41="")*(H2:H41="")*(I2:I41=""))+SUMPRODUCT((D2:D41="")*(E2:E41="")*(F2:F41="")*(G2:G41="x")*(H2:H41="")*(I2:I41=""))+SUMPRODUCT((D2:D41="")*(E2:E41="")*(F2:F41="")*(G2:G41="")*(H2:H41="")*(I2:I41="x"))</f>
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:I41"/>
-  <conditionalFormatting sqref="B2:H40 C41:H41">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND($D2="", $E2="", $F2="", $G2="", #REF!="",$H2="", #REF!="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($D41="", $E41="", $F41="", $G41="", #REF!="",$H41="", #REF!="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P125"/>
-  <sheetViews>
-    <sheetView topLeftCell="E40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" style="35" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="35" customWidth="1"/>
     <col min="5" max="5" width="31.140625" style="35" customWidth="1"/>
@@ -15638,9 +13477,7 @@
       <c r="O44" s="19"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
-        <v>438</v>
-      </c>
+      <c r="B45" s="21"/>
       <c r="C45" s="33" t="s">
         <v>503</v>
       </c>
@@ -15661,9 +13498,7 @@
       <c r="O45" s="19"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="B46" s="19"/>
       <c r="C46" s="19" t="s">
         <v>286</v>
       </c>
@@ -15671,7 +13506,7 @@
         <v>281</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:E52" si="1">SUMPRODUCT(($D$2:$D$41=B46)*($E$2:$E$41=D46))</f>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$46)*($E$2:$E$41=D46))</f>
         <v>6</v>
       </c>
       <c r="G46" s="33"/>
@@ -15685,15 +13520,13 @@
       <c r="O46" s="19"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E47:E52" si="1">SUMPRODUCT(($D$2:$D$41=$C$46)*($E$2:$E$41=D47))</f>
         <v>5</v>
       </c>
       <c r="G47" s="33"/>
@@ -15707,9 +13540,7 @@
       <c r="O47" s="19"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="21" t="s">
         <v>313</v>
@@ -15724,9 +13555,7 @@
       <c r="O48" s="19"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="21" t="s">
         <v>428</v>
@@ -15741,9 +13570,7 @@
       <c r="O49" s="19"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="21" t="s">
         <v>287</v>
@@ -15758,9 +13585,7 @@
       <c r="O50" s="19"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="21" t="s">
         <v>363</v>
@@ -15771,9 +13596,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="21" t="s">
         <v>463</v>
@@ -15784,9 +13607,7 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="B53" s="19"/>
       <c r="C53" s="19" t="s">
         <v>393</v>
       </c>
@@ -15794,27 +13615,23 @@
         <v>281</v>
       </c>
       <c r="E53">
-        <f>SUMPRODUCT(($D$2:$D$41=B53)*($E$2:$E$41=D53))</f>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$53)*($E$2:$E$41=D53))</f>
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E59" si="2">SUMPRODUCT(($D$2:$D$41=B54)*($E$2:$E$41=D54))</f>
+        <f t="shared" ref="E54:E59" si="2">SUMPRODUCT(($D$2:$D$41=$C$53)*($E$2:$E$41=D54))</f>
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="21" t="s">
         <v>313</v>
@@ -15825,9 +13642,7 @@
       </c>
     </row>
     <row r="56" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="21" t="s">
         <v>428</v>
@@ -15847,9 +13662,7 @@
       <c r="P56"/>
     </row>
     <row r="57" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="21" t="s">
         <v>287</v>
@@ -15869,9 +13682,7 @@
       <c r="P57"/>
     </row>
     <row r="58" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="21" t="s">
         <v>363</v>
@@ -15891,9 +13702,7 @@
       <c r="P58"/>
     </row>
     <row r="59" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
-        <v>393</v>
-      </c>
+      <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="21" t="s">
         <v>463</v>
@@ -15942,7 +13751,7 @@
       </c>
       <c r="E61" s="35">
         <f>SUMPRODUCT((D70:D118=D61)*(E70:E118=1))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
@@ -16055,17 +13864,14 @@
       <c r="P66"/>
     </row>
     <row r="70" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>507</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>585</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E70">
-        <f>SUMPRODUCT(($D$2:$D$41=B70)*($E$2:$E$41=D70))</f>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$70)*($E$2:$E$41=D70))</f>
         <v>0</v>
       </c>
       <c r="H70"/>
@@ -16079,15 +13885,12 @@
       <c r="P70"/>
     </row>
     <row r="71" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="C71" s="19"/>
       <c r="D71" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:E125" si="3">SUMPRODUCT(($D$2:$D$41=B71)*($E$2:$E$41=D71))</f>
+        <f t="shared" ref="E71:E76" si="3">SUMPRODUCT(($D$2:$D$41=$C$70)*($E$2:$E$41=D71))</f>
         <v>1</v>
       </c>
       <c r="H71"/>
@@ -16101,9 +13904,6 @@
       <c r="P71"/>
     </row>
     <row r="72" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="C72" s="19"/>
       <c r="D72" s="21" t="s">
         <v>313</v>
@@ -16123,9 +13923,6 @@
       <c r="P72"/>
     </row>
     <row r="73" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="C73" s="19"/>
       <c r="D73" s="21" t="s">
         <v>428</v>
@@ -16145,9 +13942,6 @@
       <c r="P73"/>
     </row>
     <row r="74" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="C74" s="19"/>
       <c r="D74" s="21" t="s">
         <v>287</v>
@@ -16167,9 +13961,6 @@
       <c r="P74"/>
     </row>
     <row r="75" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="C75" s="19"/>
       <c r="D75" s="21" t="s">
         <v>363</v>
@@ -16189,9 +13980,6 @@
       <c r="P75"/>
     </row>
     <row r="76" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="19" t="s">
-        <v>507</v>
-      </c>
       <c r="C76" s="19"/>
       <c r="D76" s="21" t="s">
         <v>463</v>
@@ -16211,15 +13999,14 @@
       <c r="P76"/>
     </row>
     <row r="77" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="C77" s="19"/>
       <c r="D77" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$77)*($E$2:$E$41=D77))</f>
         <v>0</v>
       </c>
       <c r="H77"/>
@@ -16233,15 +14020,12 @@
       <c r="P77"/>
     </row>
     <row r="78" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="19" t="s">
-        <v>508</v>
-      </c>
       <c r="C78" s="19"/>
       <c r="D78" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E78:E83" si="4">SUMPRODUCT(($D$2:$D$41=$C$77)*($E$2:$E$41=D78))</f>
         <v>1</v>
       </c>
       <c r="H78"/>
@@ -16255,15 +14039,12 @@
       <c r="P78"/>
     </row>
     <row r="79" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="19" t="s">
-        <v>508</v>
-      </c>
       <c r="C79" s="19"/>
       <c r="D79" s="21" t="s">
         <v>313</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79"/>
@@ -16277,15 +14058,12 @@
       <c r="P79"/>
     </row>
     <row r="80" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="19" t="s">
-        <v>508</v>
-      </c>
       <c r="C80" s="19"/>
       <c r="D80" s="21" t="s">
         <v>428</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80"/>
@@ -16298,16 +14076,13 @@
       <c r="O80"/>
       <c r="P80"/>
     </row>
-    <row r="81" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="19" t="s">
-        <v>508</v>
-      </c>
+    <row r="81" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="19"/>
       <c r="D81" s="21" t="s">
         <v>287</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81"/>
@@ -16320,16 +14095,13 @@
       <c r="O81"/>
       <c r="P81"/>
     </row>
-    <row r="82" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="19" t="s">
-        <v>508</v>
-      </c>
+    <row r="82" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="19"/>
       <c r="D82" s="21" t="s">
         <v>363</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82"/>
@@ -16342,16 +14114,13 @@
       <c r="O82"/>
       <c r="P82"/>
     </row>
-    <row r="83" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19" t="s">
-        <v>508</v>
-      </c>
+    <row r="83" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="19"/>
       <c r="D83" s="21" t="s">
         <v>463</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83"/>
@@ -16364,16 +14133,15 @@
       <c r="O83"/>
       <c r="P83"/>
     </row>
-    <row r="84" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="19" t="s">
+    <row r="84" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="C84" s="19"/>
       <c r="D84" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$84)*($E$2:$E$41=D84))</f>
         <v>0</v>
       </c>
       <c r="H84"/>
@@ -16386,16 +14154,13 @@
       <c r="O84"/>
       <c r="P84"/>
     </row>
-    <row r="85" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="19" t="s">
-        <v>509</v>
-      </c>
+    <row r="85" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C85" s="19"/>
       <c r="D85" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E85:E90" si="5">SUMPRODUCT(($D$2:$D$41=$C$84)*($E$2:$E$41=D85))</f>
         <v>0</v>
       </c>
       <c r="H85"/>
@@ -16408,16 +14173,13 @@
       <c r="O85"/>
       <c r="P85"/>
     </row>
-    <row r="86" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="19" t="s">
-        <v>509</v>
-      </c>
+    <row r="86" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C86" s="19"/>
       <c r="D86" s="21" t="s">
         <v>313</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H86"/>
@@ -16430,16 +14192,13 @@
       <c r="O86"/>
       <c r="P86"/>
     </row>
-    <row r="87" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="19" t="s">
-        <v>509</v>
-      </c>
+    <row r="87" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C87" s="19"/>
       <c r="D87" s="21" t="s">
         <v>428</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H87"/>
@@ -16452,16 +14211,13 @@
       <c r="O87"/>
       <c r="P87"/>
     </row>
-    <row r="88" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="19" t="s">
-        <v>509</v>
-      </c>
+    <row r="88" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C88" s="19"/>
       <c r="D88" s="21" t="s">
         <v>287</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H88"/>
@@ -16474,16 +14230,13 @@
       <c r="O88"/>
       <c r="P88"/>
     </row>
-    <row r="89" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="19" t="s">
-        <v>509</v>
-      </c>
+    <row r="89" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="19"/>
       <c r="D89" s="21" t="s">
         <v>363</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H89"/>
@@ -16496,16 +14249,13 @@
       <c r="O89"/>
       <c r="P89"/>
     </row>
-    <row r="90" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="19" t="s">
-        <v>509</v>
-      </c>
+    <row r="90" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C90" s="19"/>
       <c r="D90" s="21" t="s">
         <v>463</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H90"/>
@@ -16518,16 +14268,15 @@
       <c r="O90"/>
       <c r="P90"/>
     </row>
-    <row r="91" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="C91" s="19"/>
+    <row r="91" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="19" t="s">
+        <v>605</v>
+      </c>
       <c r="D91" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$91)*($E$2:$E$41=D91))</f>
         <v>0</v>
       </c>
       <c r="H91"/>
@@ -16540,17 +14289,14 @@
       <c r="O91"/>
       <c r="P91"/>
     </row>
-    <row r="92" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="19" t="s">
-        <v>510</v>
-      </c>
+    <row r="92" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C92" s="19"/>
       <c r="D92" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="E92:E97" si="6">SUMPRODUCT(($D$2:$D$41=$C$91)*($E$2:$E$41=D92))</f>
+        <v>1</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
@@ -16562,16 +14308,13 @@
       <c r="O92"/>
       <c r="P92"/>
     </row>
-    <row r="93" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="19" t="s">
-        <v>510</v>
-      </c>
+    <row r="93" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="19"/>
       <c r="D93" s="21" t="s">
         <v>313</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H93"/>
@@ -16584,16 +14327,13 @@
       <c r="O93"/>
       <c r="P93"/>
     </row>
-    <row r="94" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="19" t="s">
-        <v>510</v>
-      </c>
+    <row r="94" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C94" s="19"/>
       <c r="D94" s="21" t="s">
         <v>428</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H94"/>
@@ -16606,16 +14346,13 @@
       <c r="O94"/>
       <c r="P94"/>
     </row>
-    <row r="95" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="19" t="s">
-        <v>510</v>
-      </c>
+    <row r="95" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C95" s="19"/>
       <c r="D95" s="21" t="s">
         <v>287</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H95"/>
@@ -16628,16 +14365,13 @@
       <c r="O95"/>
       <c r="P95"/>
     </row>
-    <row r="96" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="19" t="s">
-        <v>510</v>
-      </c>
+    <row r="96" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C96" s="19"/>
       <c r="D96" s="21" t="s">
         <v>363</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H96"/>
@@ -16650,16 +14384,13 @@
       <c r="O96"/>
       <c r="P96"/>
     </row>
-    <row r="97" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="19" t="s">
-        <v>510</v>
-      </c>
+    <row r="97" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C97" s="19"/>
       <c r="D97" s="21" t="s">
         <v>463</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H97"/>
@@ -16672,16 +14403,15 @@
       <c r="O97"/>
       <c r="P97"/>
     </row>
-    <row r="98" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="19" t="s">
+    <row r="98" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="C98" s="19"/>
       <c r="D98" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$98)*($E$2:$E$41=D98))</f>
         <v>1</v>
       </c>
       <c r="H98"/>
@@ -16694,16 +14424,13 @@
       <c r="O98"/>
       <c r="P98"/>
     </row>
-    <row r="99" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="19" t="s">
-        <v>429</v>
-      </c>
+    <row r="99" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C99" s="19"/>
       <c r="D99" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E99:E104" si="7">SUMPRODUCT(($D$2:$D$41=$C$98)*($E$2:$E$41=D99))</f>
         <v>0</v>
       </c>
       <c r="H99"/>
@@ -16716,16 +14443,13 @@
       <c r="O99"/>
       <c r="P99"/>
     </row>
-    <row r="100" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19" t="s">
-        <v>429</v>
-      </c>
+    <row r="100" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C100" s="19"/>
       <c r="D100" s="21" t="s">
         <v>313</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H100"/>
@@ -16738,16 +14462,13 @@
       <c r="O100"/>
       <c r="P100"/>
     </row>
-    <row r="101" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="19" t="s">
-        <v>429</v>
-      </c>
+    <row r="101" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C101" s="19"/>
       <c r="D101" s="21" t="s">
         <v>428</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H101"/>
@@ -16760,16 +14481,13 @@
       <c r="O101"/>
       <c r="P101"/>
     </row>
-    <row r="102" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="19" t="s">
-        <v>429</v>
-      </c>
+    <row r="102" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C102" s="19"/>
       <c r="D102" s="21" t="s">
         <v>287</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H102"/>
@@ -16782,16 +14500,13 @@
       <c r="O102"/>
       <c r="P102"/>
     </row>
-    <row r="103" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="19" t="s">
-        <v>429</v>
-      </c>
+    <row r="103" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C103" s="19"/>
       <c r="D103" s="21" t="s">
         <v>363</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H103"/>
@@ -16804,16 +14519,13 @@
       <c r="O103"/>
       <c r="P103"/>
     </row>
-    <row r="104" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="19" t="s">
-        <v>429</v>
-      </c>
+    <row r="104" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C104" s="19"/>
       <c r="D104" s="21" t="s">
         <v>463</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H104"/>
@@ -16826,16 +14538,15 @@
       <c r="O104"/>
       <c r="P104"/>
     </row>
-    <row r="105" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="19" t="s">
+    <row r="105" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="C105" s="19"/>
       <c r="D105" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$105)*($E$2:$E$41=D105))</f>
         <v>0</v>
       </c>
       <c r="H105"/>
@@ -16848,16 +14559,13 @@
       <c r="O105"/>
       <c r="P105"/>
     </row>
-    <row r="106" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="19" t="s">
-        <v>430</v>
-      </c>
+    <row r="106" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C106" s="19"/>
       <c r="D106" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E106:E111" si="8">SUMPRODUCT(($D$2:$D$41=$C$105)*($E$2:$E$41=D106))</f>
         <v>1</v>
       </c>
       <c r="H106"/>
@@ -16870,16 +14578,13 @@
       <c r="O106"/>
       <c r="P106"/>
     </row>
-    <row r="107" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="19" t="s">
-        <v>430</v>
-      </c>
+    <row r="107" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C107" s="19"/>
       <c r="D107" s="21" t="s">
         <v>313</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H107"/>
@@ -16892,16 +14597,13 @@
       <c r="O107"/>
       <c r="P107"/>
     </row>
-    <row r="108" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="19" t="s">
-        <v>430</v>
-      </c>
+    <row r="108" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C108" s="19"/>
       <c r="D108" s="21" t="s">
         <v>428</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H108"/>
@@ -16914,16 +14616,13 @@
       <c r="O108"/>
       <c r="P108"/>
     </row>
-    <row r="109" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="19" t="s">
-        <v>430</v>
-      </c>
+    <row r="109" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C109" s="19"/>
       <c r="D109" s="21" t="s">
         <v>287</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H109"/>
@@ -16936,16 +14635,13 @@
       <c r="O109"/>
       <c r="P109"/>
     </row>
-    <row r="110" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="19" t="s">
-        <v>430</v>
-      </c>
+    <row r="110" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C110" s="19"/>
       <c r="D110" s="21" t="s">
         <v>363</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H110"/>
@@ -16958,16 +14654,13 @@
       <c r="O110"/>
       <c r="P110"/>
     </row>
-    <row r="111" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="19" t="s">
-        <v>430</v>
-      </c>
+    <row r="111" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C111" s="19"/>
       <c r="D111" s="21" t="s">
         <v>463</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H111"/>
@@ -16980,16 +14673,15 @@
       <c r="O111"/>
       <c r="P111"/>
     </row>
-    <row r="112" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="21" t="s">
+    <row r="112" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="C112" s="19"/>
       <c r="D112" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$112)*($E$2:$E$41=D112))</f>
         <v>0</v>
       </c>
       <c r="H112"/>
@@ -17002,16 +14694,13 @@
       <c r="O112"/>
       <c r="P112"/>
     </row>
-    <row r="113" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="C113" s="19"/>
+    <row r="113" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="21"/>
       <c r="D113" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E113:E118" si="9">SUMPRODUCT(($D$2:$D$41=$C$112)*($E$2:$E$41=D113))</f>
         <v>0</v>
       </c>
       <c r="H113"/>
@@ -17024,16 +14713,13 @@
       <c r="O113"/>
       <c r="P113"/>
     </row>
-    <row r="114" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="C114" s="19"/>
+    <row r="114" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="21"/>
       <c r="D114" s="21" t="s">
         <v>313</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H114"/>
@@ -17046,16 +14732,13 @@
       <c r="O114"/>
       <c r="P114"/>
     </row>
-    <row r="115" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="C115" s="19"/>
+    <row r="115" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="21"/>
       <c r="D115" s="21" t="s">
         <v>428</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H115"/>
@@ -17068,16 +14751,13 @@
       <c r="O115"/>
       <c r="P115"/>
     </row>
-    <row r="116" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="C116" s="19"/>
+    <row r="116" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="21"/>
       <c r="D116" s="21" t="s">
         <v>287</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H116"/>
@@ -17090,16 +14770,13 @@
       <c r="O116"/>
       <c r="P116"/>
     </row>
-    <row r="117" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="C117" s="19"/>
+    <row r="117" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="21"/>
       <c r="D117" s="21" t="s">
         <v>363</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H117"/>
@@ -17112,16 +14789,13 @@
       <c r="O117"/>
       <c r="P117"/>
     </row>
-    <row r="118" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="C118" s="19"/>
+    <row r="118" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="21"/>
       <c r="D118" s="21" t="s">
         <v>463</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H118"/>
@@ -17134,16 +14808,15 @@
       <c r="O118"/>
       <c r="P118"/>
     </row>
-    <row r="119" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="19" t="s">
+    <row r="119" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C119" s="19"/>
       <c r="D119" s="21" t="s">
         <v>281</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
+        <f>SUMPRODUCT(($D$2:$D$41=$C$119)*($E$2:$E$41=D119))</f>
         <v>0</v>
       </c>
       <c r="H119"/>
@@ -17156,16 +14829,13 @@
       <c r="O119"/>
       <c r="P119"/>
     </row>
-    <row r="120" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="19" t="s">
-        <v>431</v>
-      </c>
+    <row r="120" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C120" s="19"/>
       <c r="D120" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E120:E125" si="10">SUMPRODUCT(($D$2:$D$41=$C$119)*($E$2:$E$41=D120))</f>
         <v>3</v>
       </c>
       <c r="H120"/>
@@ -17178,16 +14848,13 @@
       <c r="O120"/>
       <c r="P120"/>
     </row>
-    <row r="121" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="19" t="s">
-        <v>431</v>
-      </c>
+    <row r="121" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C121" s="19"/>
       <c r="D121" s="21" t="s">
         <v>313</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H121"/>
@@ -17200,16 +14867,13 @@
       <c r="O121"/>
       <c r="P121"/>
     </row>
-    <row r="122" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="19" t="s">
-        <v>431</v>
-      </c>
+    <row r="122" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C122" s="19"/>
       <c r="D122" s="21" t="s">
         <v>428</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H122"/>
@@ -17222,16 +14886,13 @@
       <c r="O122"/>
       <c r="P122"/>
     </row>
-    <row r="123" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="19" t="s">
-        <v>431</v>
-      </c>
+    <row r="123" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C123" s="19"/>
       <c r="D123" s="21" t="s">
         <v>287</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H123"/>
@@ -17244,16 +14905,13 @@
       <c r="O123"/>
       <c r="P123"/>
     </row>
-    <row r="124" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="19" t="s">
-        <v>431</v>
-      </c>
+    <row r="124" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C124" s="19"/>
       <c r="D124" s="21" t="s">
         <v>363</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H124"/>
@@ -17266,16 +14924,13 @@
       <c r="O124"/>
       <c r="P124"/>
     </row>
-    <row r="125" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="19" t="s">
-        <v>431</v>
-      </c>
+    <row r="125" spans="3:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C125" s="19"/>
       <c r="D125" s="21" t="s">
         <v>463</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H125"/>
@@ -17296,12 +14951,2190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X53"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+    </row>
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>COUNTIF($B$2:B2,B2)&amp;":"&amp;B2</f>
+        <v>1:PTU4KWIF</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="28" t="str">
+        <f>VLOOKUP(A2,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>For conctrolling the ETL process to i2b2</v>
+      </c>
+      <c r="D2" s="19" t="str">
+        <f t="shared" ref="D2:D39" si="0">IF(OR(ISNUMBER(SEARCH("generat",C2)),ISNUMBER(SEARCH("creat",C2)),ISNUMBER(SEARCH("propos",C2)),ISNUMBER(SEARCH("design",C2)),ISNUMBER(SEARCH("develop",C2)),ISNUMBER(SEARCH("data integration",C2))),"x","")</f>
+        <v/>
+      </c>
+      <c r="E2" s="23" t="str">
+        <f t="shared" ref="E2:E31" si="1">IF(OR(ISNUMBER(SEARCH("reus",C2)),ISNUMBER(SEARCH("repeat",C2)),ISNUMBER(SEARCH("exist",C2))),"x","")</f>
+        <v/>
+      </c>
+      <c r="F2" s="23" t="str">
+        <f t="shared" ref="F2:F40" si="2">IF(OR(ISNUMBER(SEARCH("generi",C2)),ISNUMBER(SEARCH("general",C2)),ISNUMBER(SEARCH("one",C2)),,ISNUMBER(SEARCH("unif",C2))),"x","")</f>
+        <v/>
+      </c>
+      <c r="G2" s="23" t="str">
+        <f t="shared" ref="G2:G40" si="3">IF(OR(ISNUMBER(SEARCH("automat",C2)),ISNUMBER(SEARCH("auto",C2)),),"x","")</f>
+        <v/>
+      </c>
+      <c r="H2" s="23" t="str">
+        <f t="shared" ref="H2:H40" si="4">IF(OR(ISNUMBER(SEARCH("effec",C2)),ISNUMBER(SEARCH("efficien",C2)),ISNUMBER(SEARCH("fast",C2)),ISNUMBER(SEARCH("performance",C2))),"x","")</f>
+        <v/>
+      </c>
+      <c r="I2" s="19" t="str">
+        <f t="shared" ref="I2:I26" si="5">IF(OR(ISNUMBER(SEARCH("transform",C2)),ISNUMBER(SEARCH("integrat",C2))),"x","")</f>
+        <v/>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>COUNTIF($B$2:B3,B3)&amp;":"&amp;B3</f>
+        <v>1:R7HWEFXF</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C3" s="28" t="str">
+        <f>VLOOKUP(A3,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>for automating the execution of ETL-tasks based on Airflow DAGs</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F3" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G3" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H3" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I3" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+    </row>
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f>COUNTIF($B$2:B4,B4)&amp;":"&amp;B4</f>
+        <v>1:S6LJVG2G</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="28" t="str">
+        <f>VLOOKUP(A4,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>to allow high possibility of automation of the ETL process design.</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E4" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F4" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H4" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I4" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+    </row>
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f>COUNTIF($B$2:B5,B5)&amp;":"&amp;B5</f>
+        <v>1:FXJ5NTTB</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f>VLOOKUP(A5,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>to produce rich and meaningful knowledge around data integration and generates semantic data as part of the transformation phase of ETL</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H5" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I5" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>x</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+    </row>
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>COUNTIF($B$2:B6,B6)&amp;":"&amp;B6</f>
+        <v>1:4H7A5BBP</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="28" t="str">
+        <f>VLOOKUP(A6,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>automation for generation ETL workflows</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H6" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I6" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>COUNTIF($B$2:B7,B7)&amp;":"&amp;B7</f>
+        <v>1:W45GKKCL</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" s="28" t="str">
+        <f>VLOOKUP(A7,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To automatically enricht ontology by text document, so that the semantic ETL can provide a common data repository</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H7" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I7" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+    </row>
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>COUNTIF($B$2:B8,B8)&amp;":"&amp;B8</f>
+        <v>1:AFEC8VNN</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="28" t="str">
+        <f>VLOOKUP(A8,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To propose an automatic algorithm to generate ETL data flows.</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H8" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I8" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+    </row>
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>COUNTIF($B$2:B9,B9)&amp;":"&amp;B9</f>
+        <v>1:WGMWTPM7</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f>VLOOKUP(A9,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>to make the core ETL pipeline reusable and to be able to use in any secure environments</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="F9" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H9" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I9" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+    </row>
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>COUNTIF($B$2:B10,B10)&amp;":"&amp;B10</f>
+        <v>1:GUHMBZP3</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="28" t="str">
+        <f>VLOOKUP(A10,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To auto-generate ETL code.</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H10" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I10" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f>COUNTIF($B$2:B11,B11)&amp;":"&amp;B11</f>
+        <v>1:LC6FMJH6</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f>VLOOKUP(A11,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>automates part of the transformation process</v>
+      </c>
+      <c r="D11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H11" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I11" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>x</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+    </row>
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>COUNTIF($B$2:B12,B12)&amp;":"&amp;B12</f>
+        <v>1:G57DNTZK</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>VLOOKUP(A12,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>proposed a generic framework to construct a semantic data warehouse from semantic database. This framework contributes on defining ETL process at ontological level.</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>x</v>
+      </c>
+      <c r="G12" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I12" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f>COUNTIF($B$2:B13,B13)&amp;":"&amp;B13</f>
+        <v>1:H5CMN9ZS</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="28" t="str">
+        <f>VLOOKUP(A13,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>Use MMX for storing ETL metadata. This metadata is then used for automatically generating SQL scripts for transformation.</v>
+      </c>
+      <c r="D13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H13" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I13" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>x</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+    </row>
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>COUNTIF($B$2:B14,B14)&amp;":"&amp;B14</f>
+        <v>1:7MSMYDLK</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="28" t="str">
+        <f>VLOOKUP(A14,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>(is a Review paper)
+For: modelling ETL processes; modelling data; modelling DWH; design DWH;expressing patterns of ETL process</v>
+      </c>
+      <c r="D14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E14" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I14" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+    </row>
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>COUNTIF($B$2:B15,B15)&amp;":"&amp;B15</f>
+        <v>2:7MSMYDLK</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f>VLOOKUP(A15,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>modelling ETL processes;automatically generating ETL process;expressing patterns of ETL process</v>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E15" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H15" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I15" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+    </row>
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f>COUNTIF($B$2:B16,B16)&amp;":"&amp;B16</f>
+        <v>3:7MSMYDLK</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="28" t="str">
+        <f>VLOOKUP(A16,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>development of DWH;automatically generating ETL process;modelling DWH</v>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E16" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H16" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I16" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+    </row>
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f>COUNTIF($B$2:B17,B17)&amp;":"&amp;B17</f>
+        <v>4:7MSMYDLK</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="28" t="str">
+        <f>VLOOKUP(A17,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>modelling ETL processes;design ETL process;prediction of ETL performance;development of DWH;development of ETL process;improve performance</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E17" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H17" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>x</v>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+    </row>
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f>COUNTIF($B$2:B18,B18)&amp;":"&amp;B18</f>
+        <v>5:7MSMYDLK</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="28" t="str">
+        <f>VLOOKUP(A18,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>modelling ETL processes;describe ETL</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H18" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I18" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+    </row>
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f>COUNTIF($B$2:B19,B19)&amp;":"&amp;B19</f>
+        <v>1:2DDKISFN</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="28" t="str">
+        <f>VLOOKUP(A19,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>to develop a method that is based on declarative, universally machine-processible but also human-readable and easily maintainable ETL definitions that can be translated into automated database transactions.</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E19" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H19" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I19" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+    </row>
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f>COUNTIF($B$2:B20,B20)&amp;":"&amp;B20</f>
+        <v>1:HTZ6A98U</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="28" t="str">
+        <f>VLOOKUP(A20,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>allows horizontal scaling of the system by adding new consumer nodes on demand for increaded load. In this way, the processed number of data per second (performance) increased.</v>
+      </c>
+      <c r="D20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H20" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>x</v>
+      </c>
+      <c r="I20" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+    </row>
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>COUNTIF($B$2:B21,B21)&amp;":"&amp;B21</f>
+        <v>1:MVT6DRNA</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="28" t="str">
+        <f>VLOOKUP(A21,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>by using rules based on the structure and rules on how the data vault entities will be populated, it is possible to automatically generate ETL code.</v>
+      </c>
+      <c r="D21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H21" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I21" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+    </row>
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f>COUNTIF($B$2:B22,B22)&amp;":"&amp;B22</f>
+        <v>1:ZQ5N6K9Q</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="28" t="str">
+        <f>VLOOKUP(A22,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>overall harmonization framework which has been developed for harmonization of spatial planning data in scope of the INSPIRE directive</v>
+      </c>
+      <c r="D22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H22" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I22" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+    </row>
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f>COUNTIF($B$2:B23,B23)&amp;":"&amp;B23</f>
+        <v>1:A7PVZFY8</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="28" t="str">
+        <f>VLOOKUP(A23,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>4D foundational ontology is a meas of dealing with the diversity of representation and sematnics within acquired data. Using a 4D foundational ontology enables the harmonisatioin of data, then generates a graph database</v>
+      </c>
+      <c r="D23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H23" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I23" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f>COUNTIF($B$2:B24,B24)&amp;":"&amp;B24</f>
+        <v>1:IDIA875P</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" s="28" t="str">
+        <f>VLOOKUP(A24,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>automate the process of constructing a StarGraph for building a data mart</v>
+      </c>
+      <c r="D24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H24" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I24" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+    </row>
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f>COUNTIF($B$2:B25,B25)&amp;":"&amp;B25</f>
+        <v>1:ESWG8YG7</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="28" t="str">
+        <f>VLOOKUP(A25,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To reduce the complexity of the extraction process by describing all source data using ontology.</v>
+      </c>
+      <c r="D25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H25" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I25" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+    </row>
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>COUNTIF($B$2:B26,B26)&amp;":"&amp;B26</f>
+        <v>1:ZN77M9AM</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="28" t="str">
+        <f>VLOOKUP(A26,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>Aims to offer a consistent and repeatable process to convert a volume of data from delimited files via templates to RDF.</v>
+      </c>
+      <c r="D26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="F26" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H26" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I26" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+    </row>
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>COUNTIF($B$2:B27,B27)&amp;":"&amp;B27</f>
+        <v>1:MX6N36VX</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="28" t="str">
+        <f>VLOOKUP(A27,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To be able to automatically intergrate new data source; automatically generate template for transformation by using metadata of source data</v>
+      </c>
+      <c r="D27" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G27" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H27" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I27" s="19" t="str">
+        <f>IF(OR(ISNUMBER(SEARCH("transform",C27)),ISNUMBER(SEARCH("integrat",C27))),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+    </row>
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f>COUNTIF($B$2:B28,B28)&amp;":"&amp;B28</f>
+        <v>1:8IRI7CBT</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="28" t="str">
+        <f>VLOOKUP(A28,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v xml:space="preserve">To overcome/address the limitations of traditional ETL-processes (well-defined boundries for all steps within ETL process) for secondary use of EHRs; the data could be transformed automatically to OMOP CDM </v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H28" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I28" s="19" t="str">
+        <f t="shared" ref="I28:I29" si="6">IF(OR(ISNUMBER(SEARCH("transform",C28)),ISNUMBER(SEARCH("integrat",C28))),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+    </row>
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>COUNTIF($B$2:B29,B29)&amp;":"&amp;B29</f>
+        <v>2:8IRI7CBT</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="28" t="str">
+        <f>VLOOKUP(A29,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To overcome/address the limitations of traditional ETL-processes (well-defined boundries for all steps within ETL process) for secondary use of EHRs</v>
+      </c>
+      <c r="D29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H29" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I29" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+    </row>
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>COUNTIF($B$2:B30,B30)&amp;":"&amp;B30</f>
+        <v>1:97Z4C3QP</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C30" s="28" t="str">
+        <f>VLOOKUP(A30,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To be able to use the existing ETL process to prepare data in i2b2 for analytical purpose in PCORnet networks</v>
+      </c>
+      <c r="D30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="F30" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H30" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I30" s="19" t="str">
+        <f t="shared" ref="I30:I40" si="7">IF(OR(ISNUMBER(SEARCH("transform",C30)),ISNUMBER(SEARCH("integrat",C30))),"x","")</f>
+        <v/>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+    </row>
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>COUNTIF($B$2:B31,B31)&amp;":"&amp;B31</f>
+        <v>1:BDD2GLAN</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="C31" s="28" t="str">
+        <f>VLOOKUP(A31,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To reduce the effort of manual mapping; generating transformation scripts</v>
+      </c>
+      <c r="D31" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I31" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+    </row>
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f>COUNTIF($B$2:B32,B32)&amp;":"&amp;B32</f>
+        <v>1:DKYFUZT8</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="28" t="str">
+        <f>VLOOKUP(A32,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>proposed a tool, which can extract and load data to the i2b2 instancefor automatically.</v>
+      </c>
+      <c r="D32" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E32" s="23" t="str">
+        <f t="shared" ref="E32:E40" si="8">IF(OR(ISNUMBER(SEARCH("reus",C32)),ISNUMBER(SEARCH("repeat",C32)),ISNUMBER(SEARCH("exist",C32))),"x","")</f>
+        <v/>
+      </c>
+      <c r="F32" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G32" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H32" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I32" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+    </row>
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="str">
+        <f>COUNTIF($B$2:B33,B33)&amp;":"&amp;B33</f>
+        <v>1:KHQMDHCL</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="28" t="str">
+        <f>VLOOKUP(A33,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>Proposed a strategy based on heterogeneous data models, metadata-driven bi-directional data mapping and ETL technology into heterougeneous data model to realize the data exchange.</v>
+      </c>
+      <c r="D33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E33" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F33" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G33" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H33" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I33" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+    </row>
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="str">
+        <f>COUNTIF($B$2:B34,B34)&amp;":"&amp;B34</f>
+        <v>1:K3TF9X78</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="28" t="str">
+        <f>VLOOKUP(A34,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To integrate data from heterogeneous sources automatically</v>
+      </c>
+      <c r="D34" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F34" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G34" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H34" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I34" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+    </row>
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="str">
+        <f>COUNTIF($B$2:B35,B35)&amp;":"&amp;B35</f>
+        <v>1:8VTUX2A4</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="28" t="str">
+        <f>VLOOKUP(A35,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To populate data  (data model and semantic linked data) for ultimate storage in the data mart or warehouse.</v>
+      </c>
+      <c r="D35" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F35" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G35" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H35" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I35" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+    </row>
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="str">
+        <f>COUNTIF($B$2:B36,B36)&amp;":"&amp;B36</f>
+        <v>1:RWIXPNY8</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C36" s="28" t="str">
+        <f>VLOOKUP(A36,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To automatically generate SQL scripts for data transformation</v>
+      </c>
+      <c r="D36" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E36" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F36" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="H36" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I36" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+    </row>
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f>COUNTIF($B$2:B37,B37)&amp;":"&amp;B37</f>
+        <v>2:RWIXPNY8</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C37" s="28" t="str">
+        <f>VLOOKUP(A37,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To automatically generate SQL scripts for data transformation</v>
+      </c>
+      <c r="D37" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E37" s="23" t="str">
+        <f t="shared" ref="E37" si="9">IF(OR(ISNUMBER(SEARCH("reus",C37)),ISNUMBER(SEARCH("repeat",C37)),ISNUMBER(SEARCH("exist",C37))),"x","")</f>
+        <v/>
+      </c>
+      <c r="F37" s="23" t="str">
+        <f t="shared" ref="F37" si="10">IF(OR(ISNUMBER(SEARCH("generi",C37)),ISNUMBER(SEARCH("general",C37)),ISNUMBER(SEARCH("one",C37)),,ISNUMBER(SEARCH("unif",C37))),"x","")</f>
+        <v/>
+      </c>
+      <c r="G37" s="23" t="str">
+        <f t="shared" ref="G37" si="11">IF(OR(ISNUMBER(SEARCH("automat",C37)),ISNUMBER(SEARCH("auto",C37)),),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H37" s="23" t="str">
+        <f t="shared" ref="H37" si="12">IF(OR(ISNUMBER(SEARCH("effec",C37)),ISNUMBER(SEARCH("efficien",C37)),ISNUMBER(SEARCH("fast",C37)),ISNUMBER(SEARCH("performance",C37))),"x","")</f>
+        <v/>
+      </c>
+      <c r="I37" s="19" t="str">
+        <f t="shared" ref="I37" si="13">IF(OR(ISNUMBER(SEARCH("transform",C37)),ISNUMBER(SEARCH("integrat",C37))),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+    </row>
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="str">
+        <f>COUNTIF($B$2:B38,B38)&amp;":"&amp;B38</f>
+        <v>1:RQSVG23A</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="28" t="str">
+        <f>VLOOKUP(A38,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To avoid lots of repeatable, fallible and senseless operations and works (reusable ETL) and improve the performance of the ETL</v>
+      </c>
+      <c r="D38" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E38" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v>x</v>
+      </c>
+      <c r="F38" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H38" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>x</v>
+      </c>
+      <c r="I38" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+    </row>
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="str">
+        <f>COUNTIF($B$2:B39,B39)&amp;":"&amp;B39</f>
+        <v>1:3B3C7SVJ</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="28" t="str">
+        <f>VLOOKUP(A39,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>design an ETL process, which can genericly populate the targe data warehouse schema represented by an Integrating Ontology</v>
+      </c>
+      <c r="D39" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="E39" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F39" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>x</v>
+      </c>
+      <c r="G39" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H39" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I39" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+    </row>
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>COUNTIF($B$2:B40,B40)&amp;":"&amp;B40</f>
+        <v>1:TG9TQG9G</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="28" t="str">
+        <f>VLOOKUP(A40,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>To enable a generic (biomedical) data integration</v>
+      </c>
+      <c r="D40" s="19" t="str">
+        <f>IF(OR(ISNUMBER(SEARCH("generat",C40)),ISNUMBER(SEARCH("creat",C40)),ISNUMBER(SEARCH("propos",C40)),ISNUMBER(SEARCH("design",C40)),ISNUMBER(SEARCH("develop",C40)),ISNUMBER(SEARCH("data integration",C40))),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="E40" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F40" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>x</v>
+      </c>
+      <c r="G40" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H40" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I40" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+    </row>
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>COUNTIF($B$2:B41,B41)&amp;":"&amp;B41</f>
+        <v>2:TG9TQG9G</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="28" t="str">
+        <f>VLOOKUP(A41,'Data extraction'!$A$2:$AH$41,21,FALSE)</f>
+        <v>Permit the merge of different individuals from the same class</v>
+      </c>
+      <c r="D41" s="19" t="str">
+        <f>IF(OR(ISNUMBER(SEARCH("generat",C41)),ISNUMBER(SEARCH("creat",C41)),ISNUMBER(SEARCH("propos",C41)),ISNUMBER(SEARCH("design",C41)),ISNUMBER(SEARCH("develop",C41)),ISNUMBER(SEARCH("data integration",C41))),"x","")</f>
+        <v/>
+      </c>
+      <c r="E41" s="23" t="str">
+        <f t="shared" ref="E41" si="14">IF(OR(ISNUMBER(SEARCH("reus",C41)),ISNUMBER(SEARCH("repeat",C41)),ISNUMBER(SEARCH("exist",C41))),"x","")</f>
+        <v/>
+      </c>
+      <c r="F41" s="23" t="str">
+        <f t="shared" ref="F41" si="15">IF(OR(ISNUMBER(SEARCH("generi",C41)),ISNUMBER(SEARCH("general",C41)),ISNUMBER(SEARCH("one",C41)),,ISNUMBER(SEARCH("unif",C41))),"x","")</f>
+        <v/>
+      </c>
+      <c r="G41" s="23" t="str">
+        <f t="shared" ref="G41" si="16">IF(OR(ISNUMBER(SEARCH("automat",C41)),ISNUMBER(SEARCH("auto",C41)),),"x","")</f>
+        <v/>
+      </c>
+      <c r="H41" s="23" t="str">
+        <f t="shared" ref="H41" si="17">IF(OR(ISNUMBER(SEARCH("effec",C41)),ISNUMBER(SEARCH("efficien",C41)),ISNUMBER(SEARCH("fast",C41)),ISNUMBER(SEARCH("performance",C41))),"x","")</f>
+        <v/>
+      </c>
+      <c r="I41" s="19" t="str">
+        <f t="shared" ref="I41" si="18">IF(OR(ISNUMBER(SEARCH("transform",C41)),ISNUMBER(SEARCH("integrat",C41))),"x","")</f>
+        <v/>
+      </c>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C46" s="30" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C47" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="D47" s="30">
+        <f>COUNTIF(E2:E41,"x")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C48" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D48" s="30">
+        <f>SUMPRODUCT((G2:G41="x")*(I2:I41="x"))-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="D49" s="30">
+        <f>COUNTIF(H2:H41,"x")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="D50" s="30">
+        <f>SUMPRODUCT((F2:F41="x")*(D2:D41="x"))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="D51" s="30">
+        <f>SUMPRODUCT((G2:G41="x")*(D2:D41="x")*(I2:I41=""))-1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="D52" s="30">
+        <f>SUMPRODUCT((D2:D41="x")*(E2:E41="")*(F2:F41="")*(G2:G41="")*(H2:H41=""))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D53" s="30">
+        <f>SUMPRODUCT((D2:D41="")*(E2:E41="")*(F2:F41="")*(G2:G41="")*(H2:H41="")*(I2:I41=""))+SUMPRODUCT((D2:D41="")*(E2:E41="")*(F2:F41="x")*(G2:G41="")*(H2:H41="")*(I2:I41=""))+SUMPRODUCT((D2:D41="")*(E2:E41="")*(F2:F41="")*(G2:G41="x")*(H2:H41="")*(I2:I41=""))+SUMPRODUCT((D2:D41="")*(E2:E41="")*(F2:F41="")*(G2:G41="")*(H2:H41="")*(I2:I41="x"))</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:I41">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:H40 C41:H41">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND($D2="", $E2="", $F2="", $G2="", #REF!="",$H2="", #REF!="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($D41="", $E41="", $F41="", $G41="", #REF!="",$H41="", #REF!="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17357,7 +17190,7 @@
       <c r="W1" s="19"/>
       <c r="X1" s="19"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>COUNTIF($B$2:B2,B2)&amp;":"&amp;B2</f>
         <v>1:PTU4KWIF</v>
@@ -17407,7 +17240,7 @@
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>COUNTIF($B$2:B3,B3)&amp;":"&amp;B3</f>
         <v>1:R7HWEFXF</v>
@@ -17507,7 +17340,7 @@
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>COUNTIF($B$2:B5,B5)&amp;":"&amp;B5</f>
         <v>1:FXJ5NTTB</v>
@@ -17607,7 +17440,7 @@
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>COUNTIF($B$2:B7,B7)&amp;":"&amp;B7</f>
         <v>1:W45GKKCL</v>
@@ -17707,7 +17540,7 @@
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>COUNTIF($B$2:B9,B9)&amp;":"&amp;B9</f>
         <v>1:WGMWTPM7</v>
@@ -17807,7 +17640,7 @@
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>COUNTIF($B$2:B11,B11)&amp;":"&amp;B11</f>
         <v>1:LC6FMJH6</v>
@@ -17857,7 +17690,7 @@
       <c r="W11" s="23"/>
       <c r="X11" s="23"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>COUNTIF($B$2:B12,B12)&amp;":"&amp;B12</f>
         <v>1:G57DNTZK</v>
@@ -17907,7 +17740,7 @@
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>COUNTIF($B$2:B13,B13)&amp;":"&amp;B13</f>
         <v>1:H5CMN9ZS</v>
@@ -17957,7 +17790,7 @@
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>COUNTIF($B$2:B14,B14)&amp;":"&amp;B14</f>
         <v>1:7MSMYDLK</v>
@@ -18109,7 +17942,7 @@
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>COUNTIF($B$2:B17,B17)&amp;":"&amp;B17</f>
         <v>4:7MSMYDLK</v>
@@ -18159,7 +17992,7 @@
       <c r="W17" s="23"/>
       <c r="X17" s="23"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>COUNTIF($B$2:B18,B18)&amp;":"&amp;B18</f>
         <v>5:7MSMYDLK</v>
@@ -18259,7 +18092,7 @@
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>COUNTIF($B$2:B20,B20)&amp;":"&amp;B20</f>
         <v>1:HTZ6A98U</v>
@@ -18359,7 +18192,7 @@
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>COUNTIF($B$2:B22,B22)&amp;":"&amp;B22</f>
         <v>1:ZQ5N6K9Q</v>
@@ -18409,7 +18242,7 @@
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>COUNTIF($B$2:B23,B23)&amp;":"&amp;B23</f>
         <v>1:A7PVZFY8</v>
@@ -18459,7 +18292,7 @@
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>COUNTIF($B$2:B24,B24)&amp;":"&amp;B24</f>
         <v>1:IDIA875P</v>
@@ -18509,7 +18342,7 @@
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>COUNTIF($B$2:B25,B25)&amp;":"&amp;B25</f>
         <v>1:ESWG8YG7</v>
@@ -18559,7 +18392,7 @@
       <c r="W25" s="23"/>
       <c r="X25" s="23"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>COUNTIF($B$2:B26,B26)&amp;":"&amp;B26</f>
         <v>1:ZN77M9AM</v>
@@ -18609,7 +18442,7 @@
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>COUNTIF($B$2:B27,B27)&amp;":"&amp;B27</f>
         <v>1:MX6N36VX</v>
@@ -18659,7 +18492,7 @@
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>COUNTIF($B$2:B28,B28)&amp;":"&amp;B28</f>
         <v>1:8IRI7CBT</v>
@@ -18709,7 +18542,7 @@
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>COUNTIF($B$2:B29,B29)&amp;":"&amp;B29</f>
         <v>2:8IRI7CBT</v>
@@ -18759,7 +18592,7 @@
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>COUNTIF($B$2:B30,B30)&amp;":"&amp;B30</f>
         <v>1:97Z4C3QP</v>
@@ -18809,7 +18642,7 @@
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>COUNTIF($B$2:B31,B31)&amp;":"&amp;B31</f>
         <v>1:BDD2GLAN</v>
@@ -18909,7 +18742,7 @@
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>COUNTIF($B$2:B33,B33)&amp;":"&amp;B33</f>
         <v>1:KHQMDHCL</v>
@@ -18959,7 +18792,7 @@
       <c r="W33" s="23"/>
       <c r="X33" s="23"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>COUNTIF($B$2:B34,B34)&amp;":"&amp;B34</f>
         <v>1:K3TF9X78</v>
@@ -19009,7 +18842,7 @@
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>COUNTIF($B$2:B35,B35)&amp;":"&amp;B35</f>
         <v>1:8VTUX2A4</v>
@@ -19059,7 +18892,7 @@
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>COUNTIF($B$2:B36,B36)&amp;":"&amp;B36</f>
         <v>1:RWIXPNY8</v>
@@ -19109,7 +18942,7 @@
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>COUNTIF($B$2:B37,B37)&amp;":"&amp;B37</f>
         <v>2:RWIXPNY8</v>
@@ -19159,7 +18992,7 @@
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>COUNTIF($B$2:B38,B38)&amp;":"&amp;B38</f>
         <v>1:RQSVG23A</v>
@@ -19209,7 +19042,7 @@
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>COUNTIF($B$2:B39,B39)&amp;":"&amp;B39</f>
         <v>1:3B3C7SVJ</v>
@@ -19259,7 +19092,7 @@
       <c r="W39" s="23"/>
       <c r="X39" s="23"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>COUNTIF($B$2:B40,B40)&amp;":"&amp;B40</f>
         <v>1:TG9TQG9G</v>
@@ -19309,7 +19142,7 @@
       <c r="W40" s="23"/>
       <c r="X40" s="23"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="str">
         <f>COUNTIF($B$2:B41,B41)&amp;":"&amp;B41</f>
         <v>2:TG9TQG9G</v>
@@ -19359,7 +19192,7 @@
       <c r="W41" s="23"/>
       <c r="X41" s="23"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -19381,7 +19214,7 @@
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="43"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -19403,7 +19236,7 @@
       <c r="W43" s="23"/>
       <c r="X43" s="23"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="43"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -19425,7 +19258,7 @@
       <c r="W44" s="23"/>
       <c r="X44" s="23"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="D45" s="19" t="str">
         <f t="shared" ref="D45" si="0">IF(OR(ISNUMBER(SEARCH("ETL",C45)),ISNUMBER(SEARCH("transform",C45)),ISNUMBER(SEARCH("populat",C45)),ISNUMBER(SEARCH("integrat",C45)),ISNUMBER(SEARCH("process",C45)),ISNUMBER(SEARCH("harmoniz",C45)),ISNUMBER(SEARCH("load",C45))),"x","")</f>
@@ -20122,7 +19955,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N45"/>
+  <autoFilter ref="B1:N45">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B2:H44">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND($C2="", $D2="", $E2="", $F2="", #REF!="",$G2="", #REF!="")</formula>
@@ -20138,7 +19985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
@@ -20219,11 +20066,11 @@
         <v>Protégé: created i2b2 ontology</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C2)),ISNUMBER(SEARCH("own implementation",C2))),LEFT(C2,SEARCH(":",C2)-1),C2)</f>
+        <f t="shared" ref="D2:D41" si="0">IF(OR(ISNUMBER(SEARCH(":",C2)),ISNUMBER(SEARCH("own implementation",C2))),LEFT(C2,SEARCH(":",C2)-1),C2)</f>
         <v>Protégé</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C2)),ISNUMBER(SEARCH("Manually",C2)),ISNUMBER(SEARCH("Algorithm",C2))),MID(C2,SEARCH(":",C2)+2,LEN(C2)-SEARCH(":",C2)+1),"")</f>
+        <f t="shared" ref="E2:E41" si="1">IF(OR(ISNUMBER(SEARCH("own implementation",C2)),ISNUMBER(SEARCH("Manually",C2)),ISNUMBER(SEARCH("Algorithm",C2))),MID(C2,SEARCH(":",C2)+2,LEN(C2)-SEARCH(":",C2)+1),"")</f>
         <v/>
       </c>
       <c r="F2" s="39" t="str">
@@ -20266,11 +20113,11 @@
         <v>Airflow DAG</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C3)),ISNUMBER(SEARCH("own implementation",C3))),LEFT(C3,SEARCH(":",C3)-1),C3)</f>
+        <f t="shared" si="0"/>
         <v>Airflow DAG</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C3)),ISNUMBER(SEARCH("Manually",C3)),ISNUMBER(SEARCH("Algorithm",C3))),MID(C3,SEARCH(":",C3)+2,LEN(C3)-SEARCH(":",C3)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F3" s="39" t="str">
@@ -20313,11 +20160,11 @@
         <v>Protégé: OWL tool</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C4)),ISNUMBER(SEARCH("own implementation",C4))),LEFT(C4,SEARCH(":",C4)-1),C4)</f>
+        <f t="shared" si="0"/>
         <v>Protégé</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C4)),ISNUMBER(SEARCH("Manually",C4)),ISNUMBER(SEARCH("Algorithm",C4))),MID(C4,SEARCH(":",C4)+2,LEN(C4)-SEARCH(":",C4)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F4" s="39" t="str">
@@ -20360,11 +20207,11 @@
         <v>Protégé: Ontology Editor</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C5)),ISNUMBER(SEARCH("own implementation",C5))),LEFT(C5,SEARCH(":",C5)-1),C5)</f>
+        <f t="shared" si="0"/>
         <v>Protégé</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C5)),ISNUMBER(SEARCH("Manually",C5)),ISNUMBER(SEARCH("Algorithm",C5))),MID(C5,SEARCH(":",C5)+2,LEN(C5)-SEARCH(":",C5)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F5" s="39" t="str">
@@ -20407,11 +20254,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C6)),ISNUMBER(SEARCH("own implementation",C6))),LEFT(C6,SEARCH(":",C6)-1),C6)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C6)),ISNUMBER(SEARCH("Manually",C6)),ISNUMBER(SEARCH("Algorithm",C6))),MID(C6,SEARCH(":",C6)+2,LEN(C6)-SEARCH(":",C6)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F6" s="39" t="str">
@@ -20454,11 +20301,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C7)),ISNUMBER(SEARCH("own implementation",C7))),LEFT(C7,SEARCH(":",C7)-1),C7)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C7)),ISNUMBER(SEARCH("Manually",C7)),ISNUMBER(SEARCH("Algorithm",C7))),MID(C7,SEARCH(":",C7)+2,LEN(C7)-SEARCH(":",C7)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F7" s="39" t="str">
@@ -20501,11 +20348,11 @@
         <v>Own implementation: GraphExtractor</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C8)),ISNUMBER(SEARCH("own implementation",C8))),LEFT(C8,SEARCH(":",C8)-1),C8)</f>
+        <f t="shared" si="0"/>
         <v>Own implementation</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C8)),ISNUMBER(SEARCH("Manually",C8)),ISNUMBER(SEARCH("Algorithm",C8))),MID(C8,SEARCH(":",C8)+2,LEN(C8)-SEARCH(":",C8)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>GraphExtractor</v>
       </c>
       <c r="F8" s="39" t="str">
@@ -20548,11 +20395,11 @@
         <v>Manually: mapping rules stored in a YAML file</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C9)),ISNUMBER(SEARCH("own implementation",C9))),LEFT(C9,SEARCH(":",C9)-1),C9)</f>
+        <f t="shared" si="0"/>
         <v>Manually</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C9)),ISNUMBER(SEARCH("Manually",C9)),ISNUMBER(SEARCH("Algorithm",C9))),MID(C9,SEARCH(":",C9)+2,LEN(C9)-SEARCH(":",C9)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>mapping rules stored in a YAML file</v>
       </c>
       <c r="F9" s="39" t="str">
@@ -20595,11 +20442,11 @@
         <v>Manually: mapping team fill the mapping rules into mapping sheet</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C10)),ISNUMBER(SEARCH("own implementation",C10))),LEFT(C10,SEARCH(":",C10)-1),C10)</f>
+        <f t="shared" si="0"/>
         <v>Manually</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C10)),ISNUMBER(SEARCH("Manually",C10)),ISNUMBER(SEARCH("Algorithm",C10))),MID(C10,SEARCH(":",C10)+2,LEN(C10)-SEARCH(":",C10)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>mapping team fill the mapping rules into mapping sheet</v>
       </c>
       <c r="F10" s="39" t="str">
@@ -20642,11 +20489,11 @@
         <v>Manually: storing the transformation rules in a CSV file</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C11)),ISNUMBER(SEARCH("own implementation",C11))),LEFT(C11,SEARCH(":",C11)-1),C11)</f>
+        <f t="shared" si="0"/>
         <v>Manually</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C11)),ISNUMBER(SEARCH("Manually",C11)),ISNUMBER(SEARCH("Algorithm",C11))),MID(C11,SEARCH(":",C11)+2,LEN(C11)-SEARCH(":",C11)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>storing the transformation rules in a CSV file</v>
       </c>
       <c r="F11" s="39" t="str">
@@ -20689,11 +20536,11 @@
         <v>protégé: protégé editor</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C12)),ISNUMBER(SEARCH("own implementation",C12))),LEFT(C12,SEARCH(":",C12)-1),C12)</f>
+        <f t="shared" si="0"/>
         <v>protégé</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C12)),ISNUMBER(SEARCH("Manually",C12)),ISNUMBER(SEARCH("Algorithm",C12))),MID(C12,SEARCH(":",C12)+2,LEN(C12)-SEARCH(":",C12)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F12" s="39" t="str">
@@ -20736,11 +20583,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C13)),ISNUMBER(SEARCH("own implementation",C13))),LEFT(C13,SEARCH(":",C13)-1),C13)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C13)),ISNUMBER(SEARCH("Manually",C13)),ISNUMBER(SEARCH("Algorithm",C13))),MID(C13,SEARCH(":",C13)+2,LEN(C13)-SEARCH(":",C13)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F13" s="39" t="str">
@@ -20783,11 +20630,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C14)),ISNUMBER(SEARCH("own implementation",C14))),LEFT(C14,SEARCH(":",C14)-1),C14)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C14)),ISNUMBER(SEARCH("Manually",C14)),ISNUMBER(SEARCH("Algorithm",C14))),MID(C14,SEARCH(":",C14)+2,LEN(C14)-SEARCH(":",C14)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F14" s="39" t="str">
@@ -20830,11 +20677,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C15)),ISNUMBER(SEARCH("own implementation",C15))),LEFT(C15,SEARCH(":",C15)-1),C15)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C15)),ISNUMBER(SEARCH("Manually",C15)),ISNUMBER(SEARCH("Algorithm",C15))),MID(C15,SEARCH(":",C15)+2,LEN(C15)-SEARCH(":",C15)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F15" s="39" t="str">
@@ -20873,11 +20720,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C16)),ISNUMBER(SEARCH("own implementation",C16))),LEFT(C16,SEARCH(":",C16)-1),C16)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C16)),ISNUMBER(SEARCH("Manually",C16)),ISNUMBER(SEARCH("Algorithm",C16))),MID(C16,SEARCH(":",C16)+2,LEN(C16)-SEARCH(":",C16)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F16" s="39" t="str">
@@ -20916,11 +20763,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C17)),ISNUMBER(SEARCH("own implementation",C17))),LEFT(C17,SEARCH(":",C17)-1),C17)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C17)),ISNUMBER(SEARCH("Manually",C17)),ISNUMBER(SEARCH("Algorithm",C17))),MID(C17,SEARCH(":",C17)+2,LEN(C17)-SEARCH(":",C17)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F17" s="39" t="str">
@@ -20959,11 +20806,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C18)),ISNUMBER(SEARCH("own implementation",C18))),LEFT(C18,SEARCH(":",C18)-1),C18)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C18)),ISNUMBER(SEARCH("Manually",C18)),ISNUMBER(SEARCH("Algorithm",C18))),MID(C18,SEARCH(":",C18)+2,LEN(C18)-SEARCH(":",C18)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F18" s="39" t="str">
@@ -21002,11 +20849,11 @@
         <v>OntoEdit</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C19)),ISNUMBER(SEARCH("own implementation",C19))),LEFT(C19,SEARCH(":",C19)-1),C19)</f>
+        <f t="shared" si="0"/>
         <v>OntoEdit</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C19)),ISNUMBER(SEARCH("Manually",C19)),ISNUMBER(SEARCH("Algorithm",C19))),MID(C19,SEARCH(":",C19)+2,LEN(C19)-SEARCH(":",C19)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F19" s="39" t="str">
@@ -21049,11 +20896,11 @@
         <v>Apache ActiveMQ</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C20)),ISNUMBER(SEARCH("own implementation",C20))),LEFT(C20,SEARCH(":",C20)-1),C20)</f>
+        <f t="shared" si="0"/>
         <v>Apache ActiveMQ</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C20)),ISNUMBER(SEARCH("Manually",C20)),ISNUMBER(SEARCH("Algorithm",C20))),MID(C20,SEARCH(":",C20)+2,LEN(C20)-SEARCH(":",C20)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F20" s="39" t="str">
@@ -21096,11 +20943,11 @@
         <v>Existing rules in DataVault</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C21)),ISNUMBER(SEARCH("own implementation",C21))),LEFT(C21,SEARCH(":",C21)-1),C21)</f>
+        <f t="shared" si="0"/>
         <v>Existing rules in DataVault</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C21)),ISNUMBER(SEARCH("Manually",C21)),ISNUMBER(SEARCH("Algorithm",C21))),MID(C21,SEARCH(":",C21)+2,LEN(C21)-SEARCH(":",C21)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F21" s="39" t="str">
@@ -21143,11 +20990,11 @@
         <v>Protégé</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C22)),ISNUMBER(SEARCH("own implementation",C22))),LEFT(C22,SEARCH(":",C22)-1),C22)</f>
+        <f t="shared" si="0"/>
         <v>Protégé</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C22)),ISNUMBER(SEARCH("Manually",C22)),ISNUMBER(SEARCH("Algorithm",C22))),MID(C22,SEARCH(":",C22)+2,LEN(C22)-SEARCH(":",C22)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F22" s="39" t="str">
@@ -21190,11 +21037,11 @@
         <v>UML design tool: Enterprise Architect</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C23)),ISNUMBER(SEARCH("own implementation",C23))),LEFT(C23,SEARCH(":",C23)-1),C23)</f>
+        <f t="shared" si="0"/>
         <v>UML design tool</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C23)),ISNUMBER(SEARCH("Manually",C23)),ISNUMBER(SEARCH("Algorithm",C23))),MID(C23,SEARCH(":",C23)+2,LEN(C23)-SEARCH(":",C23)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F23" s="39" t="str">
@@ -21237,11 +21084,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C24)),ISNUMBER(SEARCH("own implementation",C24))),LEFT(C24,SEARCH(":",C24)-1),C24)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C24)),ISNUMBER(SEARCH("Manually",C24)),ISNUMBER(SEARCH("Algorithm",C24))),MID(C24,SEARCH(":",C24)+2,LEN(C24)-SEARCH(":",C24)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F24" s="39" t="str">
@@ -21284,11 +21131,11 @@
         <v>own implementation: Creation Ontology algorithm</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C25)),ISNUMBER(SEARCH("own implementation",C25))),LEFT(C25,SEARCH(":",C25)-1),C25)</f>
+        <f t="shared" si="0"/>
         <v>own implementation</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C25)),ISNUMBER(SEARCH("Manually",C25)),ISNUMBER(SEARCH("Algorithm",C25))),MID(C25,SEARCH(":",C25)+2,LEN(C25)-SEARCH(":",C25)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>Creation Ontology algorithm</v>
       </c>
       <c r="F25" s="39" t="str">
@@ -21331,11 +21178,11 @@
         <v>exising ontology</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C26)),ISNUMBER(SEARCH("own implementation",C26))),LEFT(C26,SEARCH(":",C26)-1),C26)</f>
+        <f t="shared" si="0"/>
         <v>exising ontology</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C26)),ISNUMBER(SEARCH("Manually",C26)),ISNUMBER(SEARCH("Algorithm",C26))),MID(C26,SEARCH(":",C26)+2,LEN(C26)-SEARCH(":",C26)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F26" s="39" t="str">
@@ -21378,11 +21225,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C27)),ISNUMBER(SEARCH("own implementation",C27))),LEFT(C27,SEARCH(":",C27)-1),C27)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C27)),ISNUMBER(SEARCH("Manually",C27)),ISNUMBER(SEARCH("Algorithm",C27))),MID(C27,SEARCH(":",C27)+2,LEN(C27)-SEARCH(":",C27)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F27" s="39" t="str">
@@ -21425,11 +21272,11 @@
         <v>OWL</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C28)),ISNUMBER(SEARCH("own implementation",C28))),LEFT(C28,SEARCH(":",C28)-1),C28)</f>
+        <f t="shared" si="0"/>
         <v>OWL</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C28)),ISNUMBER(SEARCH("Manually",C28)),ISNUMBER(SEARCH("Algorithm",C28))),MID(C28,SEARCH(":",C28)+2,LEN(C28)-SEARCH(":",C28)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F28" s="39" t="str">
@@ -21472,11 +21319,11 @@
         <v>Notation 3 (N3)</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C29)),ISNUMBER(SEARCH("own implementation",C29))),LEFT(C29,SEARCH(":",C29)-1),C29)</f>
+        <f t="shared" si="0"/>
         <v>Notation 3 (N3)</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C29)),ISNUMBER(SEARCH("Manually",C29)),ISNUMBER(SEARCH("Algorithm",C29))),MID(C29,SEARCH(":",C29)+2,LEN(C29)-SEARCH(":",C29)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F29" s="39" t="str">
@@ -21515,11 +21362,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C30)),ISNUMBER(SEARCH("own implementation",C30))),LEFT(C30,SEARCH(":",C30)-1),C30)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C30)),ISNUMBER(SEARCH("Manually",C30)),ISNUMBER(SEARCH("Algorithm",C30))),MID(C30,SEARCH(":",C30)+2,LEN(C30)-SEARCH(":",C30)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F30" s="39" t="str">
@@ -21562,11 +21409,11 @@
         <v>Own implementation: ontology generator</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C31)),ISNUMBER(SEARCH("own implementation",C31))),LEFT(C31,SEARCH(":",C31)-1),C31)</f>
+        <f t="shared" si="0"/>
         <v>Own implementation</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C31)),ISNUMBER(SEARCH("Manually",C31)),ISNUMBER(SEARCH("Algorithm",C31))),MID(C31,SEARCH(":",C31)+2,LEN(C31)-SEARCH(":",C31)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>ontology generator</v>
       </c>
       <c r="F31" s="39" t="str">
@@ -21609,11 +21456,11 @@
         <v>at_code from i2b2 ontology</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C32)),ISNUMBER(SEARCH("own implementation",C32))),LEFT(C32,SEARCH(":",C32)-1),C32)</f>
+        <f t="shared" si="0"/>
         <v>at_code from i2b2 ontology</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C32)),ISNUMBER(SEARCH("Manually",C32)),ISNUMBER(SEARCH("Algorithm",C32))),MID(C32,SEARCH(":",C32)+2,LEN(C32)-SEARCH(":",C32)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F32" s="39" t="str">
@@ -21656,11 +21503,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C33)),ISNUMBER(SEARCH("own implementation",C33))),LEFT(C33,SEARCH(":",C33)-1),C33)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C33)),ISNUMBER(SEARCH("Manually",C33)),ISNUMBER(SEARCH("Algorithm",C33))),MID(C33,SEARCH(":",C33)+2,LEN(C33)-SEARCH(":",C33)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F33" s="39" t="str">
@@ -21703,11 +21550,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C34)),ISNUMBER(SEARCH("own implementation",C34))),LEFT(C34,SEARCH(":",C34)-1),C34)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C34)),ISNUMBER(SEARCH("Manually",C34)),ISNUMBER(SEARCH("Algorithm",C34))),MID(C34,SEARCH(":",C34)+2,LEN(C34)-SEARCH(":",C34)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F34" s="39" t="str">
@@ -21750,11 +21597,11 @@
         <v>Protégé</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C35)),ISNUMBER(SEARCH("own implementation",C35))),LEFT(C35,SEARCH(":",C35)-1),C35)</f>
+        <f t="shared" si="0"/>
         <v>Protégé</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C35)),ISNUMBER(SEARCH("Manually",C35)),ISNUMBER(SEARCH("Algorithm",C35))),MID(C35,SEARCH(":",C35)+2,LEN(C35)-SEARCH(":",C35)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F35" s="39" t="str">
@@ -21797,11 +21644,11 @@
         <v>own implementation: metadata-repository</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C36)),ISNUMBER(SEARCH("own implementation",C36))),LEFT(C36,SEARCH(":",C36)-1),C36)</f>
+        <f t="shared" si="0"/>
         <v>own implementation</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C36)),ISNUMBER(SEARCH("Manually",C36)),ISNUMBER(SEARCH("Algorithm",C36))),MID(C36,SEARCH(":",C36)+2,LEN(C36)-SEARCH(":",C36)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>metadata-repository</v>
       </c>
       <c r="F36" s="39" t="str">
@@ -21844,11 +21691,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C37)),ISNUMBER(SEARCH("own implementation",C37))),LEFT(C37,SEARCH(":",C37)-1),C37)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C37)),ISNUMBER(SEARCH("Manually",C37)),ISNUMBER(SEARCH("Algorithm",C37))),MID(C37,SEARCH(":",C37)+2,LEN(C37)-SEARCH(":",C37)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F37" s="39" t="str">
@@ -21887,11 +21734,11 @@
         <v>Manually: created by users or system (stored in a table)</v>
       </c>
       <c r="D38" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C38)),ISNUMBER(SEARCH("own implementation",C38))),LEFT(C38,SEARCH(":",C38)-1),C38)</f>
+        <f t="shared" si="0"/>
         <v>Manually</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C38)),ISNUMBER(SEARCH("Manually",C38)),ISNUMBER(SEARCH("Algorithm",C38))),MID(C38,SEARCH(":",C38)+2,LEN(C38)-SEARCH(":",C38)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>created by users or system (stored in a table)</v>
       </c>
       <c r="F38" s="39" t="str">
@@ -21934,11 +21781,11 @@
         <v>not mentioned</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C39)),ISNUMBER(SEARCH("own implementation",C39))),LEFT(C39,SEARCH(":",C39)-1),C39)</f>
+        <f t="shared" si="0"/>
         <v>not mentioned</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C39)),ISNUMBER(SEARCH("Manually",C39)),ISNUMBER(SEARCH("Algorithm",C39))),MID(C39,SEARCH(":",C39)+2,LEN(C39)-SEARCH(":",C39)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F39" s="39" t="str">
@@ -21981,11 +21828,11 @@
         <v>used existing ontologies</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C40)),ISNUMBER(SEARCH("own implementation",C40))),LEFT(C40,SEARCH(":",C40)-1),C40)</f>
+        <f t="shared" si="0"/>
         <v>used existing ontologies</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C40)),ISNUMBER(SEARCH("Manually",C40)),ISNUMBER(SEARCH("Algorithm",C40))),MID(C40,SEARCH(":",C40)+2,LEN(C40)-SEARCH(":",C40)+1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F40" s="39" t="str">
@@ -22028,11 +21875,11 @@
         <v>Manually: created by developers</v>
       </c>
       <c r="D41" s="48" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH(":",C41)),ISNUMBER(SEARCH("own implementation",C41))),LEFT(C41,SEARCH(":",C41)-1),C41)</f>
+        <f t="shared" si="0"/>
         <v>Manually</v>
       </c>
       <c r="E41" s="48" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("own implementation",C41)),ISNUMBER(SEARCH("Manually",C41)),ISNUMBER(SEARCH("Algorithm",C41))),MID(C41,SEARCH(":",C41)+2,LEN(C41)-SEARCH(":",C41)+1),"")</f>
+        <f t="shared" si="1"/>
         <v>created by developers</v>
       </c>
       <c r="F41" s="50" t="str">
@@ -22170,7 +22017,7 @@
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="21">
-        <f t="shared" ref="F46:F50" si="0">SUMPRODUCT(($F$2:$F$41=$C$45)*($D$2:$D$41=D46))</f>
+        <f t="shared" ref="F46:F50" si="2">SUMPRODUCT(($F$2:$F$41=$C$45)*($D$2:$D$41=D46))</f>
         <v>1</v>
       </c>
       <c r="G46" s="21"/>
@@ -22200,7 +22047,7 @@
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G47" s="19"/>
@@ -22233,7 +22080,7 @@
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G48" s="19"/>
@@ -22265,7 +22112,7 @@
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G49" s="19"/>
@@ -22297,7 +22144,7 @@
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50" s="19"/>
@@ -22324,7 +22171,7 @@
         <v>496</v>
       </c>
       <c r="F52" s="19">
-        <f t="shared" ref="F52:F62" si="1">SUMPRODUCT(($F$2:$F$41=$C$45)*($E$2:$E$41=E52))</f>
+        <f t="shared" ref="F52:F62" si="3">SUMPRODUCT(($F$2:$F$41=$C$45)*($E$2:$E$41=E52))</f>
         <v>0</v>
       </c>
       <c r="G52" s="19"/>
@@ -22337,7 +22184,7 @@
         <v>530</v>
       </c>
       <c r="F53" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G53" s="19"/>
@@ -22348,7 +22195,7 @@
         <v>359</v>
       </c>
       <c r="F54" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G54" s="19"/>
@@ -22359,7 +22206,7 @@
         <v>403</v>
       </c>
       <c r="F55" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G55" s="19"/>
@@ -22375,7 +22222,7 @@
         <v>370</v>
       </c>
       <c r="F56" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G56" s="19"/>
@@ -22391,7 +22238,7 @@
         <v>584</v>
       </c>
       <c r="F57" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G57" s="19"/>
@@ -22410,7 +22257,7 @@
         <v>531</v>
       </c>
       <c r="F58" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G58" s="19"/>
@@ -22430,7 +22277,7 @@
         <v>573</v>
       </c>
       <c r="F59" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G59" s="19"/>
@@ -22447,7 +22294,7 @@
         <v>532</v>
       </c>
       <c r="F60" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G60" s="19"/>
@@ -22464,7 +22311,7 @@
         <v>613</v>
       </c>
       <c r="F61" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G61" s="19"/>
@@ -22480,7 +22327,7 @@
         <v>582</v>
       </c>
       <c r="F62" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G62" s="19"/>
@@ -22517,7 +22364,7 @@
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="21">
-        <f t="shared" ref="F64:F68" si="2">SUMPRODUCT(($F$2:$F$41=$C$63)*($D$2:$D$41=D64))</f>
+        <f t="shared" ref="F64:F68" si="4">SUMPRODUCT(($F$2:$F$41=$C$63)*($D$2:$D$41=D64))</f>
         <v>0</v>
       </c>
       <c r="G64" s="19"/>
@@ -22534,7 +22381,7 @@
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G65" s="19"/>
@@ -22552,7 +22399,7 @@
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G66" s="19"/>
@@ -22570,7 +22417,7 @@
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G67" s="19"/>
@@ -22588,7 +22435,7 @@
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G68" s="19"/>
@@ -22626,7 +22473,7 @@
         <v>496</v>
       </c>
       <c r="F70" s="19">
-        <f t="shared" ref="F70:F80" si="3">SUMPRODUCT(($F$2:$F$41=$C$63)*($E$2:$E$41=E70))</f>
+        <f t="shared" ref="F70:F80" si="5">SUMPRODUCT(($F$2:$F$41=$C$63)*($E$2:$E$41=E70))</f>
         <v>0</v>
       </c>
       <c r="G70" s="19"/>
@@ -22644,7 +22491,7 @@
         <v>530</v>
       </c>
       <c r="F71" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G71" s="19"/>
@@ -22660,7 +22507,7 @@
         <v>359</v>
       </c>
       <c r="F72" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G72" s="19"/>
@@ -22676,7 +22523,7 @@
         <v>403</v>
       </c>
       <c r="F73" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G73" s="19"/>
@@ -22692,7 +22539,7 @@
         <v>370</v>
       </c>
       <c r="F74" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G74" s="19"/>
@@ -22708,7 +22555,7 @@
         <v>584</v>
       </c>
       <c r="F75" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G75" s="19"/>
@@ -22727,7 +22574,7 @@
         <v>531</v>
       </c>
       <c r="F76" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G76" s="19"/>
@@ -22741,7 +22588,7 @@
         <v>574</v>
       </c>
       <c r="F77" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G77" s="19"/>
@@ -22755,7 +22602,7 @@
         <v>532</v>
       </c>
       <c r="F78" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G78" s="19"/>
@@ -22769,7 +22616,7 @@
         <v>613</v>
       </c>
       <c r="F79" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G79" s="19"/>
@@ -22782,7 +22629,7 @@
         <v>582</v>
       </c>
       <c r="F80" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G80" s="19"/>
@@ -22798,7 +22645,7 @@
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="21">
-        <f t="shared" ref="F81:F86" si="4">SUMPRODUCT(($D$106:$D$248=D81)*($F$106:$F$248&lt;&gt;0))</f>
+        <f t="shared" ref="F81:F86" si="6">SUMPRODUCT(($D$106:$D$248=D81)*($F$106:$F$248&lt;&gt;0))</f>
         <v>0</v>
       </c>
       <c r="G81" s="19"/>
@@ -22811,7 +22658,7 @@
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G82" s="19"/>
@@ -22822,7 +22669,7 @@
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G83" s="19"/>
@@ -22835,7 +22682,7 @@
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G84" s="19"/>
@@ -22848,7 +22695,7 @@
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G85" s="19"/>
@@ -22861,7 +22708,7 @@
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G86" s="19"/>
@@ -22876,7 +22723,7 @@
         <v>578</v>
       </c>
       <c r="F87" s="21">
-        <f t="shared" ref="F87:F93" si="5">SUMPRODUCT(($E$106:$E$248=E87)*($F$106:$F$248&lt;&gt;0))</f>
+        <f t="shared" ref="F87:F93" si="7">SUMPRODUCT(($E$106:$E$248=E87)*($F$106:$F$248&lt;&gt;0))</f>
         <v>0</v>
       </c>
       <c r="G87" s="19"/>
@@ -22889,7 +22736,7 @@
         <v>496</v>
       </c>
       <c r="F88" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G88" s="19"/>
@@ -22902,7 +22749,7 @@
         <v>530</v>
       </c>
       <c r="F89" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G89" s="19"/>
@@ -22912,7 +22759,7 @@
         <v>359</v>
       </c>
       <c r="F90" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G90" s="19"/>
@@ -22922,7 +22769,7 @@
         <v>403</v>
       </c>
       <c r="F91" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G91" s="19"/>
@@ -22933,7 +22780,7 @@
         <v>370</v>
       </c>
       <c r="F92" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G92" s="19"/>
@@ -22946,7 +22793,7 @@
         <v>584</v>
       </c>
       <c r="F93" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G93" s="19"/>
@@ -22962,7 +22809,7 @@
         <v>531</v>
       </c>
       <c r="F94" s="21">
-        <f t="shared" ref="F94:F98" si="6">SUMPRODUCT(($E$106:$E$248=E94)*($F$106:$F$248&lt;&gt;0))</f>
+        <f t="shared" ref="F94:F98" si="8">SUMPRODUCT(($E$106:$E$248=E94)*($F$106:$F$248&lt;&gt;0))</f>
         <v>0</v>
       </c>
       <c r="G94" s="19"/>
@@ -22975,7 +22822,7 @@
         <v>574</v>
       </c>
       <c r="F95" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G95" s="19"/>
@@ -22988,7 +22835,7 @@
         <v>532</v>
       </c>
       <c r="F96" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G96" s="19"/>
@@ -23000,7 +22847,7 @@
         <v>613</v>
       </c>
       <c r="F97" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G97" s="19"/>
@@ -23011,7 +22858,7 @@
         <v>582</v>
       </c>
       <c r="F98" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G98" s="19"/>
@@ -23063,7 +22910,7 @@
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="21">
-        <f t="shared" ref="F107:F111" si="7">SUMPRODUCT(($F$2:$F$41=$C$106)*($D$2:$D$41=D107))</f>
+        <f t="shared" ref="F107:F111" si="9">SUMPRODUCT(($F$2:$F$41=$C$106)*($D$2:$D$41=D107))</f>
         <v>0</v>
       </c>
       <c r="G107" s="19"/>
@@ -23075,7 +22922,7 @@
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G108" s="19"/>
@@ -23087,7 +22934,7 @@
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G109" s="19"/>
@@ -23099,7 +22946,7 @@
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G110" s="19"/>
@@ -23111,7 +22958,7 @@
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G111" s="19"/>
@@ -23137,7 +22984,7 @@
         <v>496</v>
       </c>
       <c r="F113" s="19">
-        <f t="shared" ref="F113:F122" si="8">SUMPRODUCT(($F$2:$F$41=$C$106)*($E$2:$E$41=E113))</f>
+        <f t="shared" ref="F113:F122" si="10">SUMPRODUCT(($F$2:$F$41=$C$106)*($E$2:$E$41=E113))</f>
         <v>0</v>
       </c>
       <c r="G113" s="19"/>
@@ -23149,7 +22996,7 @@
         <v>530</v>
       </c>
       <c r="F114" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G114" s="19"/>
@@ -23160,7 +23007,7 @@
         <v>359</v>
       </c>
       <c r="F115" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G115" s="19"/>
@@ -23171,7 +23018,7 @@
         <v>403</v>
       </c>
       <c r="F116" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G116" s="19"/>
@@ -23182,7 +23029,7 @@
         <v>370</v>
       </c>
       <c r="F117" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G117" s="19"/>
@@ -23193,7 +23040,7 @@
         <v>584</v>
       </c>
       <c r="F118" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G118" s="19"/>
@@ -23207,7 +23054,7 @@
         <v>531</v>
       </c>
       <c r="F119" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G119" s="19"/>
@@ -23219,7 +23066,7 @@
         <v>574</v>
       </c>
       <c r="F120" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G120" s="19"/>
@@ -23231,7 +23078,7 @@
         <v>532</v>
       </c>
       <c r="F121" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G121" s="19"/>
@@ -23242,7 +23089,7 @@
         <v>582</v>
       </c>
       <c r="F122" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G122" s="19"/>
@@ -23268,7 +23115,7 @@
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="21">
-        <f t="shared" ref="F124:F128" si="9">SUMPRODUCT(($F$2:$F$41=$C$123)*($D$2:$D$41=D124))</f>
+        <f t="shared" ref="F124:F128" si="11">SUMPRODUCT(($F$2:$F$41=$C$123)*($D$2:$D$41=D124))</f>
         <v>0</v>
       </c>
       <c r="G124" s="19"/>
@@ -23280,7 +23127,7 @@
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G125" s="19"/>
@@ -23292,7 +23139,7 @@
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G126" s="19"/>
@@ -23304,7 +23151,7 @@
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G127" s="19"/>
@@ -23316,7 +23163,7 @@
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G128" s="19"/>
@@ -23342,7 +23189,7 @@
         <v>496</v>
       </c>
       <c r="F130" s="19">
-        <f t="shared" ref="F130:F140" si="10">SUMPRODUCT(($F$2:$F$41=$C$123)*($E$2:$E$41=E130))</f>
+        <f t="shared" ref="F130:F140" si="12">SUMPRODUCT(($F$2:$F$41=$C$123)*($E$2:$E$41=E130))</f>
         <v>0</v>
       </c>
       <c r="G130" s="19"/>
@@ -23354,7 +23201,7 @@
         <v>530</v>
       </c>
       <c r="F131" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G131" s="19"/>
@@ -23365,7 +23212,7 @@
         <v>359</v>
       </c>
       <c r="F132" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G132" s="19"/>
@@ -23376,7 +23223,7 @@
         <v>403</v>
       </c>
       <c r="F133" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G133" s="19"/>
@@ -23387,7 +23234,7 @@
         <v>370</v>
       </c>
       <c r="F134" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G134" s="19"/>
@@ -23398,7 +23245,7 @@
         <v>584</v>
       </c>
       <c r="F135" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G135" s="19"/>
@@ -23412,7 +23259,7 @@
         <v>531</v>
       </c>
       <c r="F136" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G136" s="19"/>
@@ -23424,7 +23271,7 @@
         <v>574</v>
       </c>
       <c r="F137" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G137" s="19"/>
@@ -23436,7 +23283,7 @@
         <v>532</v>
       </c>
       <c r="F138" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G138" s="19"/>
@@ -23448,7 +23295,7 @@
         <v>613</v>
       </c>
       <c r="F139" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G139" s="19"/>
@@ -23459,7 +23306,7 @@
         <v>582</v>
       </c>
       <c r="F140" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G140" s="19"/>
@@ -23485,7 +23332,7 @@
       </c>
       <c r="E142" s="28"/>
       <c r="F142" s="21">
-        <f t="shared" ref="F142:F146" si="11">SUMPRODUCT(($F$2:$F$41=$C$141)*($D$2:$D$41=D142))</f>
+        <f t="shared" ref="F142:F146" si="13">SUMPRODUCT(($F$2:$F$41=$C$141)*($D$2:$D$41=D142))</f>
         <v>0</v>
       </c>
       <c r="G142" s="19"/>
@@ -23497,7 +23344,7 @@
       </c>
       <c r="E143" s="28"/>
       <c r="F143" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G143" s="19"/>
@@ -23509,7 +23356,7 @@
       </c>
       <c r="E144" s="28"/>
       <c r="F144" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -23520,7 +23367,7 @@
       </c>
       <c r="E145" s="28"/>
       <c r="F145" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -23531,7 +23378,7 @@
       </c>
       <c r="E146" s="28"/>
       <c r="F146" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -23555,7 +23402,7 @@
         <v>496</v>
       </c>
       <c r="F148" s="19">
-        <f t="shared" ref="F148:F158" si="12">SUMPRODUCT(($F$2:$F$41=$C$141)*($E$2:$E$41=E148))</f>
+        <f t="shared" ref="F148:F158" si="14">SUMPRODUCT(($F$2:$F$41=$C$141)*($E$2:$E$41=E148))</f>
         <v>0</v>
       </c>
     </row>
@@ -23566,7 +23413,7 @@
         <v>530</v>
       </c>
       <c r="F149" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23576,7 +23423,7 @@
         <v>359</v>
       </c>
       <c r="F150" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23586,7 +23433,7 @@
         <v>403</v>
       </c>
       <c r="F151" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23596,7 +23443,7 @@
         <v>370</v>
       </c>
       <c r="F152" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23606,7 +23453,7 @@
         <v>584</v>
       </c>
       <c r="F153" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23619,7 +23466,7 @@
         <v>531</v>
       </c>
       <c r="F154" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23630,7 +23477,7 @@
         <v>574</v>
       </c>
       <c r="F155" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23641,7 +23488,7 @@
         <v>532</v>
       </c>
       <c r="F156" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23652,7 +23499,7 @@
         <v>613</v>
       </c>
       <c r="F157" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23662,7 +23509,7 @@
         <v>582</v>
       </c>
       <c r="F158" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -23686,7 +23533,7 @@
       </c>
       <c r="E160" s="28"/>
       <c r="F160" s="21">
-        <f t="shared" ref="F160:F164" si="13">SUMPRODUCT(($F$2:$F$41=$C$159)*($D$2:$D$41=D160))</f>
+        <f t="shared" ref="F160:F164" si="15">SUMPRODUCT(($F$2:$F$41=$C$159)*($D$2:$D$41=D160))</f>
         <v>0</v>
       </c>
     </row>
@@ -23697,7 +23544,7 @@
       </c>
       <c r="E161" s="28"/>
       <c r="F161" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23708,7 +23555,7 @@
       </c>
       <c r="E162" s="28"/>
       <c r="F162" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23719,7 +23566,7 @@
       </c>
       <c r="E163" s="28"/>
       <c r="F163" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23730,7 +23577,7 @@
       </c>
       <c r="E164" s="28"/>
       <c r="F164" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -23754,7 +23601,7 @@
         <v>496</v>
       </c>
       <c r="F166" s="19">
-        <f t="shared" ref="F166:F176" si="14">SUMPRODUCT(($F$2:$F$41=$C$159)*($E$2:$E$41=E166))</f>
+        <f t="shared" ref="F166:F176" si="16">SUMPRODUCT(($F$2:$F$41=$C$159)*($E$2:$E$41=E166))</f>
         <v>0</v>
       </c>
     </row>
@@ -23765,7 +23612,7 @@
         <v>530</v>
       </c>
       <c r="F167" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23775,7 +23622,7 @@
         <v>359</v>
       </c>
       <c r="F168" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23785,7 +23632,7 @@
         <v>403</v>
       </c>
       <c r="F169" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23795,7 +23642,7 @@
         <v>370</v>
       </c>
       <c r="F170" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23805,7 +23652,7 @@
         <v>584</v>
       </c>
       <c r="F171" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23818,7 +23665,7 @@
         <v>531</v>
       </c>
       <c r="F172" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23829,7 +23676,7 @@
         <v>574</v>
       </c>
       <c r="F173" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23840,7 +23687,7 @@
         <v>532</v>
       </c>
       <c r="F174" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23851,7 +23698,7 @@
         <v>613</v>
       </c>
       <c r="F175" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23861,7 +23708,7 @@
         <v>582</v>
       </c>
       <c r="F176" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -23885,7 +23732,7 @@
       </c>
       <c r="E178" s="28"/>
       <c r="F178" s="21">
-        <f t="shared" ref="F178:F182" si="15">SUMPRODUCT(($F$2:$F$41=$C$177)*($D$2:$D$41=D178))</f>
+        <f t="shared" ref="F178:F182" si="17">SUMPRODUCT(($F$2:$F$41=$C$177)*($D$2:$D$41=D178))</f>
         <v>0</v>
       </c>
     </row>
@@ -23896,7 +23743,7 @@
       </c>
       <c r="E179" s="28"/>
       <c r="F179" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -23907,7 +23754,7 @@
       </c>
       <c r="E180" s="28"/>
       <c r="F180" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -23918,7 +23765,7 @@
       </c>
       <c r="E181" s="28"/>
       <c r="F181" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -23929,7 +23776,7 @@
       </c>
       <c r="E182" s="28"/>
       <c r="F182" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -23953,7 +23800,7 @@
         <v>496</v>
       </c>
       <c r="F184" s="19">
-        <f t="shared" ref="F184:F194" si="16">SUMPRODUCT(($F$2:$F$41=$C$177)*($E$2:$E$41=E184))</f>
+        <f t="shared" ref="F184:F194" si="18">SUMPRODUCT(($F$2:$F$41=$C$177)*($E$2:$E$41=E184))</f>
         <v>0</v>
       </c>
     </row>
@@ -23964,7 +23811,7 @@
         <v>530</v>
       </c>
       <c r="F185" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -23974,7 +23821,7 @@
         <v>359</v>
       </c>
       <c r="F186" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -23984,7 +23831,7 @@
         <v>403</v>
       </c>
       <c r="F187" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -23994,7 +23841,7 @@
         <v>370</v>
       </c>
       <c r="F188" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -24004,7 +23851,7 @@
         <v>584</v>
       </c>
       <c r="F189" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -24017,7 +23864,7 @@
         <v>531</v>
       </c>
       <c r="F190" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -24028,7 +23875,7 @@
         <v>574</v>
       </c>
       <c r="F191" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -24039,7 +23886,7 @@
         <v>532</v>
       </c>
       <c r="F192" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -24050,7 +23897,7 @@
         <v>613</v>
       </c>
       <c r="F193" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -24060,7 +23907,7 @@
         <v>582</v>
       </c>
       <c r="F194" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -24084,7 +23931,7 @@
       </c>
       <c r="E196" s="28"/>
       <c r="F196" s="21">
-        <f t="shared" ref="F196:F200" si="17">SUMPRODUCT(($F$2:$F$41=$C$195)*($D$2:$D$41=D196))</f>
+        <f t="shared" ref="F196:F200" si="19">SUMPRODUCT(($F$2:$F$41=$C$195)*($D$2:$D$41=D196))</f>
         <v>0</v>
       </c>
     </row>
@@ -24095,7 +23942,7 @@
       </c>
       <c r="E197" s="28"/>
       <c r="F197" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -24106,7 +23953,7 @@
       </c>
       <c r="E198" s="28"/>
       <c r="F198" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -24117,7 +23964,7 @@
       </c>
       <c r="E199" s="28"/>
       <c r="F199" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -24128,7 +23975,7 @@
       </c>
       <c r="E200" s="28"/>
       <c r="F200" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -24152,7 +23999,7 @@
         <v>496</v>
       </c>
       <c r="F202" s="19">
-        <f t="shared" ref="F202:F212" si="18">SUMPRODUCT(($F$2:$F$41=$C$195)*($E$2:$E$41=E202))</f>
+        <f t="shared" ref="F202:F212" si="20">SUMPRODUCT(($F$2:$F$41=$C$195)*($E$2:$E$41=E202))</f>
         <v>0</v>
       </c>
     </row>
@@ -24163,7 +24010,7 @@
         <v>530</v>
       </c>
       <c r="F203" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24173,7 +24020,7 @@
         <v>359</v>
       </c>
       <c r="F204" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24183,7 +24030,7 @@
         <v>403</v>
       </c>
       <c r="F205" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24193,7 +24040,7 @@
         <v>370</v>
       </c>
       <c r="F206" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24203,7 +24050,7 @@
         <v>584</v>
       </c>
       <c r="F207" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24216,7 +24063,7 @@
         <v>531</v>
       </c>
       <c r="F208" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24227,7 +24074,7 @@
         <v>574</v>
       </c>
       <c r="F209" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24238,7 +24085,7 @@
         <v>532</v>
       </c>
       <c r="F210" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24249,7 +24096,7 @@
         <v>613</v>
       </c>
       <c r="F211" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24259,7 +24106,7 @@
         <v>582</v>
       </c>
       <c r="F212" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -24283,7 +24130,7 @@
       </c>
       <c r="E214" s="28"/>
       <c r="F214" s="21">
-        <f t="shared" ref="F214:F218" si="19">SUMPRODUCT(($F$2:$F$41=$C$213)*($D$2:$D$41=D214))</f>
+        <f t="shared" ref="F214:F218" si="21">SUMPRODUCT(($F$2:$F$41=$C$213)*($D$2:$D$41=D214))</f>
         <v>0</v>
       </c>
     </row>
@@ -24294,7 +24141,7 @@
       </c>
       <c r="E215" s="28"/>
       <c r="F215" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -24305,7 +24152,7 @@
       </c>
       <c r="E216" s="28"/>
       <c r="F216" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -24316,7 +24163,7 @@
       </c>
       <c r="E217" s="28"/>
       <c r="F217" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -24327,7 +24174,7 @@
       </c>
       <c r="E218" s="28"/>
       <c r="F218" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -24351,7 +24198,7 @@
         <v>496</v>
       </c>
       <c r="F220" s="19">
-        <f t="shared" ref="F220:F230" si="20">SUMPRODUCT(($F$2:$F$41=$C$213)*($E$2:$E$41=E220))</f>
+        <f t="shared" ref="F220:F230" si="22">SUMPRODUCT(($F$2:$F$41=$C$213)*($E$2:$E$41=E220))</f>
         <v>0</v>
       </c>
     </row>
@@ -24362,7 +24209,7 @@
         <v>530</v>
       </c>
       <c r="F221" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24372,7 +24219,7 @@
         <v>359</v>
       </c>
       <c r="F222" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24382,7 +24229,7 @@
         <v>403</v>
       </c>
       <c r="F223" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24392,7 +24239,7 @@
         <v>370</v>
       </c>
       <c r="F224" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24402,7 +24249,7 @@
         <v>584</v>
       </c>
       <c r="F225" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24415,7 +24262,7 @@
         <v>531</v>
       </c>
       <c r="F226" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24426,7 +24273,7 @@
         <v>574</v>
       </c>
       <c r="F227" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24437,7 +24284,7 @@
         <v>532</v>
       </c>
       <c r="F228" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24448,7 +24295,7 @@
         <v>613</v>
       </c>
       <c r="F229" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24458,7 +24305,7 @@
         <v>582</v>
       </c>
       <c r="F230" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -24482,7 +24329,7 @@
       </c>
       <c r="E232" s="28"/>
       <c r="F232" s="21">
-        <f t="shared" ref="F232:F236" si="21">SUMPRODUCT(($F$2:$F$41=$C$231)*($D$2:$D$41=D232))</f>
+        <f t="shared" ref="F232:F236" si="23">SUMPRODUCT(($F$2:$F$41=$C$231)*($D$2:$D$41=D232))</f>
         <v>0</v>
       </c>
     </row>
@@ -24493,7 +24340,7 @@
       </c>
       <c r="E233" s="28"/>
       <c r="F233" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -24504,7 +24351,7 @@
       </c>
       <c r="E234" s="28"/>
       <c r="F234" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -24515,7 +24362,7 @@
       </c>
       <c r="E235" s="28"/>
       <c r="F235" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -24526,7 +24373,7 @@
       </c>
       <c r="E236" s="28"/>
       <c r="F236" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -24550,7 +24397,7 @@
         <v>496</v>
       </c>
       <c r="F238" s="19">
-        <f t="shared" ref="F238:F248" si="22">SUMPRODUCT(($F$2:$F$41=$C$231)*($E$2:$E$41=E238))</f>
+        <f t="shared" ref="F238:F248" si="24">SUMPRODUCT(($F$2:$F$41=$C$231)*($E$2:$E$41=E238))</f>
         <v>0</v>
       </c>
     </row>
@@ -24561,7 +24408,7 @@
         <v>530</v>
       </c>
       <c r="F239" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -24571,7 +24418,7 @@
         <v>359</v>
       </c>
       <c r="F240" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -24581,7 +24428,7 @@
         <v>403</v>
       </c>
       <c r="F241" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -24591,7 +24438,7 @@
         <v>370</v>
       </c>
       <c r="F242" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -24601,7 +24448,7 @@
         <v>584</v>
       </c>
       <c r="F243" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -24614,7 +24461,7 @@
         <v>531</v>
       </c>
       <c r="F244" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -24625,7 +24472,7 @@
         <v>574</v>
       </c>
       <c r="F245" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -24636,7 +24483,7 @@
         <v>532</v>
       </c>
       <c r="F246" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -24647,7 +24494,7 @@
         <v>613</v>
       </c>
       <c r="F247" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -24657,7 +24504,7 @@
         <v>582</v>
       </c>
       <c r="F248" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
